--- a/documents/japanese/総経費.xlsx
+++ b/documents/japanese/総経費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さたいん\Documents\projects\WorldTravelingLogger\documents\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BF4028-7800-4E1F-9D87-E8D28F8F2B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECC37F9-CD71-468E-8E09-3DDCB96E7503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="7" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
   </bookViews>
   <sheets>
     <sheet name="オーストラリア" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="アジア" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4328" uniqueCount="1798">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -9434,6 +9433,1510 @@
   </si>
   <si>
     <t>フィリピン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ空港</t>
+    <rPh sb="3" eb="5">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GRAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドミトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ市街地</t>
+    <rPh sb="3" eb="6">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンディアゴ要塞</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然史博物館</t>
+    <rPh sb="0" eb="6">
+      <t>シゼンシハクブツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜ご飯</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電車</t>
+    <rPh sb="0" eb="2">
+      <t>デンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラバスターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タガイタイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>129ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーガーキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピクニックグローブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゥクトゥク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆腐の苺ソース</t>
+    <rPh sb="0" eb="2">
+      <t>トウフ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イチゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>118ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バタンガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>268ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プエルトガエラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>425ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワクチンチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナル使用料</t>
+    <rPh sb="5" eb="8">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入島料</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プエルトガエラ宿</t>
+    <rPh sb="7" eb="8">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サザンビーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタルバイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトビーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイク後部</t>
+    <rPh sb="3" eb="5">
+      <t>コウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>92ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラパン港</t>
+    <rPh sb="4" eb="5">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パチョカビーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プエルトガエラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ココナッツジュース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バラテロ港</t>
+    <rPh sb="4" eb="5">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>620ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナル使用料</t>
+    <rPh sb="5" eb="8">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マビニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジプニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マビニ宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>260ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>249ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個室</t>
+    <rPh sb="0" eb="2">
+      <t>コシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おやつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラバスターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PITX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dau ターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dauターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンヘラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dau宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットドッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョリービー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>188ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>75ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショウガ飯</t>
+    <rPh sb="4" eb="5">
+      <t>メシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然公園</t>
+    <rPh sb="0" eb="2">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然公園</t>
+    <rPh sb="0" eb="4">
+      <t>シゼンコウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサ参加</t>
+    <rPh sb="2" eb="4">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェネシスターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>295ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ宿途中</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMモール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マニラ空港</t>
+    <rPh sb="3" eb="5">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャトルバス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300ペソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行機</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実家</t>
+    <rPh sb="0" eb="2">
+      <t>ジッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEEN靴購入</t>
+    <rPh sb="4" eb="5">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三田駅</t>
+    <rPh sb="0" eb="3">
+      <t>サンダエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪駅</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電車</t>
+    <rPh sb="0" eb="2">
+      <t>デンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阪急梅田駅</t>
+    <rPh sb="0" eb="2">
+      <t>ハンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウメダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田城跡</t>
+    <rPh sb="0" eb="3">
+      <t>イケダシロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阪急池田駅</t>
+    <rPh sb="0" eb="2">
+      <t>ハンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川西池田駅</t>
+    <rPh sb="0" eb="2">
+      <t>カワニシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三田駅</t>
+    <rPh sb="0" eb="2">
+      <t>サンダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三ノ宮駅</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神戸異人館</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イジンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2100円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トルコ料理</t>
+    <rPh sb="3" eb="5">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>450円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>620円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>260円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>770円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病院診断</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関西国際空港</t>
+    <rPh sb="0" eb="2">
+      <t>カンサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2230円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハノイ国際空港</t>
+    <rPh sb="3" eb="5">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベトナムハンバーガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17100ドン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハノイ宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タクシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000ドン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イギリス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒースロー空港</t>
+    <rPh sb="5" eb="7">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロンドン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大英博物館</t>
+    <rPh sb="0" eb="2">
+      <t>ダイエイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハクブツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イギリス王宮</t>
+    <rPh sb="4" eb="6">
+      <t>オウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガドウィック空港</t>
+    <rPh sb="6" eb="8">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.6￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20￡キャッシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洗濯</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大英博物館荷物預け</t>
+    <rPh sb="0" eb="2">
+      <t>ダイエイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハクブツカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マクドナルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェントミンスター寺院</t>
+    <rPh sb="9" eb="11">
+      <t>ジイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビッグベン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッキンガム宮殿</t>
+    <rPh sb="6" eb="8">
+      <t>キュウデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空港</t>
+    <rPh sb="0" eb="2">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイキャビク空港</t>
+    <rPh sb="6" eb="8">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイキャビク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3295クローナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスランド国立博物館</t>
+    <rPh sb="6" eb="8">
+      <t>コクリツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ハクブツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2500クローナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボルガルネイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーナツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランドリーサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1500Kr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェラミーさん会合</t>
+    <rPh sb="7" eb="9">
+      <t>カイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハフナルフィヨルズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1980Kr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>560Kr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブリン空港</t>
+    <rPh sb="4" eb="6">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイルランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EURailパス30日券</t>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィックロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルファスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルスター国立博物館</t>
+    <rPh sb="5" eb="7">
+      <t>コクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ハクブツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷物預け</t>
+    <rPh sb="0" eb="2">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディンバラ宿代取られる</t>
+    <rPh sb="6" eb="7">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルファスト港</t>
+    <rPh sb="6" eb="7">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>37￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケイルンライアン港</t>
+    <rPh sb="8" eb="9">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアー駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラスゴー中央駅</t>
+    <rPh sb="5" eb="7">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラスゴークイーンストリート駅</t>
+    <rPh sb="14" eb="15">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディンバラ駅</t>
+    <rPh sb="6" eb="7">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大福</t>
+    <rPh sb="0" eb="2">
+      <t>ダイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディンバラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーディフ駅</t>
+    <rPh sb="5" eb="6">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーサーディドビル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スワンシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バース駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウザンプトン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンツ3枚</t>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンチェスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>costaコーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.75￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロンドンwaterloo駅</t>
+    <rPh sb="12" eb="13">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロンドン中心地</t>
+    <rPh sb="4" eb="6">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランドリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.5￡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロンドンst pancreas駅</t>
+    <rPh sb="15" eb="16">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーバー駅</t>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーバー港</t>
+    <rPh sb="4" eb="5">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレー港</t>
+    <rPh sb="3" eb="4">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイルランド国境</t>
+    <rPh sb="6" eb="8">
+      <t>コッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北アイルランド5￡やけつく</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレー市街地</t>
+    <rPh sb="3" eb="6">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレー駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リール駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リール宿</t>
+    <rPh sb="3" eb="4">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リール24時間券</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アミアン駅</t>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リール大聖堂</t>
+    <rPh sb="3" eb="6">
+      <t>ダイセイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アミアン大聖堂</t>
+    <rPh sb="4" eb="7">
+      <t>ダイセイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロワッサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リール要塞</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランス国境</t>
+    <rPh sb="4" eb="6">
+      <t>コッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トゥールネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナミュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルギー国境</t>
+    <rPh sb="4" eb="6">
+      <t>コッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルクセンブルグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルギー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルクセンブルグ国境</t>
+    <rPh sb="7" eb="9">
+      <t>コッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナミュール宿</t>
+    <rPh sb="5" eb="6">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルクセンブルグ大聖堂</t>
+    <rPh sb="7" eb="10">
+      <t>ダイセイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルロン大聖堂</t>
+    <rPh sb="4" eb="7">
+      <t>ダイセイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスキャンデー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナミュール城壁</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウヘキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナミュール大聖堂</t>
+    <rPh sb="5" eb="8">
+      <t>ダイセイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リエージュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルギーワッフル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リエージュ駅</t>
+    <rPh sb="5" eb="6">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナミュール駅</t>
+    <rPh sb="5" eb="6">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンミッシェル大聖堂</t>
+    <rPh sb="7" eb="10">
+      <t>ダイセイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しょんべん小僧</t>
+    <rPh sb="5" eb="7">
+      <t>コゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グランプラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルギー王宮</t>
+    <rPh sb="4" eb="6">
+      <t>オウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雹降ってくる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリュッセル駅</t>
+    <rPh sb="6" eb="7">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルギービール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポテト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーバン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロッテルダム駅</t>
+    <rPh sb="6" eb="7">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アムステルダム駅</t>
+    <rPh sb="7" eb="8">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザーンセ・スカンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アントワープ駅</t>
+    <rPh sb="6" eb="7">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オランダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アムステルダム宿</t>
+    <rPh sb="7" eb="8">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アムステルダム中央駅</t>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルンヘム駅</t>
+    <rPh sb="5" eb="6">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドイツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュイスブルフ駅</t>
+    <rPh sb="7" eb="8">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケルン駅</t>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9651,9 +11154,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -9663,10 +11163,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12215,17 +13718,15 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="E32:E33"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="F77:F78"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
@@ -12237,7 +13738,7 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="F34:F36"/>
-    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="I70:I71"/>
     <mergeCell ref="I72:I74"/>
     <mergeCell ref="I75:I76"/>
@@ -12252,7 +13753,8 @@
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="I62:I63"/>
     <mergeCell ref="I64:I67"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G59:G60"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -12273,6 +13775,7 @@
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="I77:I79"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
@@ -12402,7 +13905,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>44755</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -12428,7 +13931,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="23"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="19"/>
       <c r="C3" t="s">
         <v>212</v>
@@ -12453,7 +13956,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="19" t="s">
         <v>216</v>
       </c>
@@ -12478,7 +13981,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="19"/>
       <c r="C5" t="s">
         <v>214</v>
@@ -12501,7 +14004,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="C6" t="s">
         <v>229</v>
@@ -12515,7 +14018,7 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>44756</v>
       </c>
       <c r="B7" s="19"/>
@@ -12542,7 +14045,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -12554,7 +14057,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>44757</v>
       </c>
       <c r="B9" s="19"/>
@@ -12584,7 +14087,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" t="s">
         <v>228</v>
@@ -12605,7 +14108,7 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>44758</v>
       </c>
       <c r="B11" s="19"/>
@@ -12644,7 +14147,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="19"/>
       <c r="C12" t="s">
         <v>235</v>
@@ -12674,7 +14177,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -12686,7 +14189,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>44759</v>
       </c>
       <c r="B14" t="s">
@@ -12715,7 +14218,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="C15" t="s">
         <v>238</v>
       </c>
@@ -12734,7 +14237,7 @@
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>44760</v>
       </c>
       <c r="C16" t="s">
@@ -12760,7 +14263,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="C17" t="s">
         <v>242</v>
       </c>
@@ -12779,7 +14282,7 @@
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>44761</v>
       </c>
       <c r="C18" t="s">
@@ -12890,7 +14393,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>44762</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -12954,7 +14457,7 @@
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>44763</v>
       </c>
       <c r="C26" t="s">
@@ -13062,7 +14565,7 @@
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>44764</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -13120,7 +14623,7 @@
       <c r="C33" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>272</v>
       </c>
       <c r="E33" s="19">
@@ -13135,7 +14638,7 @@
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>44765</v>
       </c>
       <c r="C34" s="19"/>
@@ -13176,7 +14679,7 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>44766</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -13390,10 +14893,10 @@
       <c r="A45" s="1">
         <v>44773</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="23" t="s">
         <v>296</v>
       </c>
       <c r="E45" s="19">
@@ -13454,7 +14957,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>44776</v>
       </c>
       <c r="C48" t="s">
@@ -13560,7 +15063,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="23">
+      <c r="A53" s="22">
         <v>44778</v>
       </c>
       <c r="C53" t="s">
@@ -13608,7 +15111,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>44779</v>
       </c>
       <c r="C55" t="s">
@@ -13704,7 +15207,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>44781</v>
       </c>
       <c r="C59" t="s">
@@ -13951,7 +15454,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>44782</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -13991,7 +15494,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>44783</v>
       </c>
       <c r="B4" s="19"/>
@@ -14044,7 +15547,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>44784</v>
       </c>
       <c r="B6" s="19"/>
@@ -14131,7 +15634,7 @@
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>44785</v>
       </c>
       <c r="B10" s="19"/>
@@ -14195,7 +15698,7 @@
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>44786</v>
       </c>
       <c r="B13" s="19"/>
@@ -14289,7 +15792,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>44788</v>
       </c>
       <c r="B17" s="19"/>
@@ -14353,7 +15856,7 @@
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>44789</v>
       </c>
       <c r="B20" s="19"/>
@@ -14420,7 +15923,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>44790</v>
       </c>
       <c r="B23" s="19"/>
@@ -14563,7 +16066,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>44794</v>
       </c>
       <c r="B28" s="19"/>
@@ -14607,7 +16110,7 @@
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>44795</v>
       </c>
       <c r="B30" s="19"/>
@@ -14689,7 +16192,7 @@
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:20" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>44796</v>
       </c>
       <c r="B33" s="19"/>
@@ -14736,7 +16239,7 @@
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>44797</v>
       </c>
       <c r="B35" s="19"/>
@@ -14789,7 +16292,7 @@
       <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>44798</v>
       </c>
       <c r="B37" s="19"/>
@@ -14845,7 +16348,7 @@
       <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>44799</v>
       </c>
       <c r="B39" s="19"/>
@@ -14972,7 +16475,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>44801</v>
       </c>
       <c r="B43" s="19"/>
@@ -15138,7 +16641,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>44803</v>
       </c>
       <c r="B49" s="19"/>
@@ -15276,7 +16779,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="23">
+      <c r="A55" s="22">
         <v>44804</v>
       </c>
       <c r="B55" s="19"/>
@@ -15347,7 +16850,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="23">
+      <c r="A57" s="22">
         <v>44805</v>
       </c>
       <c r="B57" s="19"/>
@@ -15422,7 +16925,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>44807</v>
       </c>
       <c r="B60" s="19"/>
@@ -15490,7 +16993,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>44809</v>
       </c>
       <c r="B63" s="19"/>
@@ -15534,7 +17037,7 @@
       <c r="I64" s="19"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="23">
+      <c r="A65" s="22">
         <v>44810</v>
       </c>
       <c r="B65" s="19"/>
@@ -15612,7 +17115,7 @@
       <c r="I67" s="19"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>44811</v>
       </c>
       <c r="B68" s="19"/>
@@ -15674,7 +17177,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>44812</v>
       </c>
       <c r="B70" s="19"/>
@@ -15753,7 +17256,7 @@
       <c r="I72" s="19"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="23">
+      <c r="A73" s="22">
         <v>44813</v>
       </c>
       <c r="B73" s="19"/>
@@ -15843,7 +17346,7 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="23">
+      <c r="A76" s="22">
         <v>44814</v>
       </c>
       <c r="B76" s="19"/>
@@ -15905,7 +17408,7 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="23">
+      <c r="A78" s="22">
         <v>44815</v>
       </c>
       <c r="B78" s="19"/>
@@ -15949,7 +17452,7 @@
       <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="23">
+      <c r="A80" s="22">
         <v>44816</v>
       </c>
       <c r="B80" s="19"/>
@@ -16004,7 +17507,7 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="23">
+      <c r="A83" s="22">
         <v>44817</v>
       </c>
       <c r="B83" s="19"/>
@@ -16085,7 +17588,7 @@
       <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="23">
+      <c r="A86" s="22">
         <v>44818</v>
       </c>
       <c r="B86" s="19"/>
@@ -16141,7 +17644,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="23">
+      <c r="A88" s="22">
         <v>44819</v>
       </c>
       <c r="B88" s="19"/>
@@ -16167,7 +17670,7 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="23">
+      <c r="A90" s="22">
         <v>44820</v>
       </c>
       <c r="B90" s="19"/>
@@ -16228,7 +17731,7 @@
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="23">
+      <c r="A93" s="22">
         <v>44821</v>
       </c>
       <c r="B93" s="19"/>
@@ -16287,7 +17790,7 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="23">
+      <c r="A95" s="22">
         <v>44822</v>
       </c>
       <c r="B95" s="19"/>
@@ -16457,7 +17960,7 @@
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="23">
+      <c r="A102" s="22">
         <v>44824</v>
       </c>
       <c r="B102" s="19"/>
@@ -16534,7 +18037,7 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="23">
+      <c r="A105" s="22">
         <v>44825</v>
       </c>
       <c r="B105" s="19"/>
@@ -16593,7 +18096,7 @@
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="23">
+      <c r="A107" s="22">
         <v>44826</v>
       </c>
       <c r="B107" s="19"/>
@@ -16678,7 +18181,7 @@
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="23">
+      <c r="A110" s="22">
         <v>44827</v>
       </c>
       <c r="B110" s="19"/>
@@ -16730,7 +18233,7 @@
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="23">
+      <c r="A113" s="22">
         <v>44828</v>
       </c>
       <c r="B113" s="19"/>
@@ -16834,7 +18337,7 @@
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="23">
+      <c r="A117" s="22">
         <v>44829</v>
       </c>
       <c r="B117" s="19"/>
@@ -16875,7 +18378,7 @@
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="23">
+      <c r="A119" s="22">
         <v>44830</v>
       </c>
       <c r="B119" s="19"/>
@@ -16987,7 +18490,7 @@
       <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="23">
+      <c r="A124" s="22">
         <v>44831</v>
       </c>
       <c r="B124" s="19"/>
@@ -17031,7 +18534,7 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="23">
+      <c r="A126" s="22">
         <v>44832</v>
       </c>
       <c r="B126" s="19"/>
@@ -17082,7 +18585,7 @@
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="23">
+      <c r="A129" s="22">
         <v>44833</v>
       </c>
       <c r="B129" s="19"/>
@@ -17252,7 +18755,7 @@
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="23">
+      <c r="A135" s="22">
         <v>44836</v>
       </c>
       <c r="B135" s="19"/>
@@ -17305,7 +18808,7 @@
       <c r="I136" s="19"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="23">
+      <c r="A137" s="22">
         <v>44837</v>
       </c>
       <c r="B137" s="19"/>
@@ -17358,7 +18861,7 @@
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="23">
+      <c r="A139" s="22">
         <v>44838</v>
       </c>
       <c r="B139" s="19"/>
@@ -17423,7 +18926,7 @@
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="23">
+      <c r="A141" s="22">
         <v>44839</v>
       </c>
       <c r="B141" s="19"/>
@@ -17567,7 +19070,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="23">
+      <c r="A146" s="22">
         <v>44841</v>
       </c>
       <c r="B146" s="19"/>
@@ -17666,7 +19169,7 @@
       <c r="I149" s="19"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="23">
+      <c r="A150" s="22">
         <v>44842</v>
       </c>
       <c r="B150" s="19"/>
@@ -17999,7 +19502,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>44843</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -18087,7 +19590,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>44845</v>
       </c>
       <c r="B5" s="19"/>
@@ -18190,7 +19693,7 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>44846</v>
       </c>
       <c r="B9" s="19"/>
@@ -18278,7 +19781,7 @@
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="23">
+      <c r="A12" s="22">
         <v>44847</v>
       </c>
       <c r="B12" s="19"/>
@@ -18366,7 +19869,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>44848</v>
       </c>
       <c r="B15" s="19"/>
@@ -18529,7 +20032,7 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>44849</v>
       </c>
       <c r="B21" s="19"/>
@@ -18615,7 +20118,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>44851</v>
       </c>
       <c r="B24" s="19"/>
@@ -18714,7 +20217,7 @@
       <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>44852</v>
       </c>
       <c r="B28" s="19"/>
@@ -18837,7 +20340,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>44854</v>
       </c>
       <c r="B33" s="19"/>
@@ -18910,7 +20413,7 @@
       <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>44855</v>
       </c>
       <c r="B36" s="19"/>
@@ -18992,7 +20495,7 @@
       <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>44856</v>
       </c>
       <c r="B39" s="19"/>
@@ -19063,7 +20566,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="23">
+      <c r="A42" s="22">
         <v>44858</v>
       </c>
       <c r="B42" s="19"/>
@@ -19207,7 +20710,7 @@
       <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>44859</v>
       </c>
       <c r="B48" s="19"/>
@@ -19333,7 +20836,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>44860</v>
       </c>
       <c r="B52" s="19"/>
@@ -19383,7 +20886,7 @@
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="23">
+      <c r="A54" s="22">
         <v>44861</v>
       </c>
       <c r="B54" s="19"/>
@@ -19500,7 +21003,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>44863</v>
       </c>
       <c r="B59" s="19"/>
@@ -19556,7 +21059,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>44864</v>
       </c>
       <c r="B61" s="19"/>
@@ -19675,7 +21178,7 @@
       <c r="I65" s="19"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>44865</v>
       </c>
       <c r="B66" s="19"/>
@@ -19754,7 +21257,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="23">
+      <c r="A69" s="22">
         <v>44866</v>
       </c>
       <c r="B69" s="19"/>
@@ -19827,7 +21330,7 @@
       <c r="I71" s="19"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="23">
+      <c r="A72" s="22">
         <v>44867</v>
       </c>
       <c r="B72" s="19"/>
@@ -19986,7 +21489,7 @@
       <c r="I78" s="19"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="23">
+      <c r="A79" s="22">
         <v>44868</v>
       </c>
       <c r="B79" s="19"/>
@@ -20062,7 +21565,7 @@
       <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="23">
+      <c r="A82" s="22">
         <v>44869</v>
       </c>
       <c r="B82" s="19"/>
@@ -20132,7 +21635,7 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="23">
+      <c r="A85" s="22">
         <v>44870</v>
       </c>
       <c r="B85" s="19"/>
@@ -20203,7 +21706,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="23">
+      <c r="A88" s="22">
         <v>44872</v>
       </c>
       <c r="B88" s="19"/>
@@ -20260,7 +21763,7 @@
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="23">
+      <c r="A92" s="22">
         <v>44873</v>
       </c>
       <c r="B92" s="19"/>
@@ -20416,7 +21919,7 @@
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="23">
+      <c r="A98" s="22">
         <v>44874</v>
       </c>
       <c r="B98" s="19"/>
@@ -20498,7 +22001,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="23">
+      <c r="A101" s="22">
         <v>44875</v>
       </c>
       <c r="B101" s="19"/>
@@ -20571,7 +22074,7 @@
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="23">
+      <c r="A104" s="22">
         <v>44876</v>
       </c>
       <c r="B104" s="19"/>
@@ -20647,7 +22150,7 @@
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="23">
+      <c r="A107" s="22">
         <v>44877</v>
       </c>
       <c r="B107" s="19"/>
@@ -20720,7 +22223,7 @@
       <c r="I109" s="19"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="23">
+      <c r="A110" s="22">
         <v>44878</v>
       </c>
       <c r="B110" s="19"/>
@@ -20811,7 +22314,7 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="23">
+      <c r="A113" s="22">
         <v>44879</v>
       </c>
       <c r="B113" s="19"/>
@@ -20861,7 +22364,7 @@
       <c r="I114" s="19"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="23">
+      <c r="A115" s="22">
         <v>44880</v>
       </c>
       <c r="B115" s="19"/>
@@ -21022,7 +22525,7 @@
       <c r="I119" s="19"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="23">
+      <c r="A120" s="22">
         <v>44881</v>
       </c>
       <c r="B120" s="19"/>
@@ -21095,7 +22598,7 @@
       <c r="I122" s="19"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="23">
+      <c r="A123" s="22">
         <v>44882</v>
       </c>
       <c r="B123" s="19"/>
@@ -21163,7 +22666,7 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="23">
+      <c r="A125" s="22">
         <v>44883</v>
       </c>
       <c r="B125" s="19"/>
@@ -21228,7 +22731,7 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="23">
+      <c r="A127" s="22">
         <v>44884</v>
       </c>
       <c r="B127" s="19"/>
@@ -21336,7 +22839,7 @@
       <c r="I130" s="19"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="23">
+      <c r="A131" s="22">
         <v>44885</v>
       </c>
       <c r="B131" s="19"/>
@@ -21406,7 +22909,7 @@
       <c r="I133" s="19"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="23">
+      <c r="A134" s="22">
         <v>44886</v>
       </c>
       <c r="B134" s="19"/>
@@ -21462,7 +22965,7 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="23">
+      <c r="A136" s="22">
         <v>44887</v>
       </c>
       <c r="B136" s="19"/>
@@ -21606,7 +23109,7 @@
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="23">
+      <c r="A141" s="22">
         <v>44889</v>
       </c>
       <c r="B141" s="19"/>
@@ -21641,7 +23144,7 @@
       <c r="I142" s="19"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="23">
+      <c r="A143" s="22">
         <v>44890</v>
       </c>
       <c r="B143" s="19"/>
@@ -21687,7 +23190,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="23">
+      <c r="A146" s="22">
         <v>44891</v>
       </c>
       <c r="B146" s="19"/>
@@ -21815,7 +23318,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="23">
+      <c r="A151" s="22">
         <v>44893</v>
       </c>
       <c r="B151" s="19"/>
@@ -21909,7 +23412,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="23">
+      <c r="A155" s="22">
         <v>44895</v>
       </c>
       <c r="B155" s="19"/>
@@ -21982,7 +23485,7 @@
       <c r="I157" s="19"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="23">
+      <c r="A158" s="22">
         <v>44896</v>
       </c>
       <c r="B158" s="19"/>
@@ -22055,7 +23558,7 @@
       <c r="I160" s="19"/>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="23">
+      <c r="A161" s="22">
         <v>44897</v>
       </c>
       <c r="B161" s="19"/>
@@ -22095,7 +23598,7 @@
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="23">
+      <c r="A164" s="22">
         <v>44898</v>
       </c>
       <c r="B164" s="19"/>
@@ -22188,7 +23691,7 @@
       <c r="I167" s="19"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="23">
+      <c r="A168" s="22">
         <v>44899</v>
       </c>
       <c r="B168" s="19"/>
@@ -22267,7 +23770,7 @@
       <c r="I170" s="19"/>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="23">
+      <c r="A171" s="22">
         <v>44900</v>
       </c>
       <c r="B171" s="19"/>
@@ -22363,7 +23866,7 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="23">
+      <c r="A175" s="22">
         <v>44901</v>
       </c>
       <c r="B175" s="19"/>
@@ -22410,7 +23913,7 @@
       <c r="I176" s="19"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="23">
+      <c r="A177" s="22">
         <v>44902</v>
       </c>
       <c r="B177" s="19"/>
@@ -22466,7 +23969,7 @@
       <c r="I178" s="19"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="23">
+      <c r="A179" s="22">
         <v>44903</v>
       </c>
       <c r="B179" s="19"/>
@@ -22539,7 +24042,7 @@
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="23">
+      <c r="A182" s="22">
         <v>44904</v>
       </c>
       <c r="B182" s="19"/>
@@ -22645,7 +24148,7 @@
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="23">
+      <c r="A186" s="22">
         <v>44906</v>
       </c>
       <c r="B186" s="19"/>
@@ -22695,7 +24198,7 @@
       <c r="I187" s="19"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="23">
+      <c r="A188" s="22">
         <v>44907</v>
       </c>
       <c r="B188" s="19"/>
@@ -22817,7 +24320,7 @@
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="23">
+      <c r="A194" s="22">
         <v>44909</v>
       </c>
       <c r="B194" s="19"/>
@@ -22913,7 +24416,7 @@
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="23">
+      <c r="A198" s="22">
         <v>44910</v>
       </c>
       <c r="B198" s="19"/>
@@ -23006,7 +24509,7 @@
       <c r="I201" s="19"/>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="23">
+      <c r="A202" s="22">
         <v>44911</v>
       </c>
       <c r="B202" s="19"/>
@@ -23065,7 +24568,7 @@
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="23">
+      <c r="A204" s="22">
         <v>44912</v>
       </c>
       <c r="B204" s="19"/>
@@ -23195,7 +24698,7 @@
       <c r="I209" s="19"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="23">
+      <c r="A210" s="22">
         <v>44913</v>
       </c>
       <c r="B210" s="19"/>
@@ -23287,7 +24790,7 @@
       <c r="I214" s="19"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="23">
+      <c r="A215" s="22">
         <v>44914</v>
       </c>
       <c r="B215" s="19"/>
@@ -23343,7 +24846,7 @@
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="23">
+      <c r="A217" s="22">
         <v>44915</v>
       </c>
       <c r="B217" s="19"/>
@@ -23399,7 +24902,7 @@
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="23">
+      <c r="A219" s="22">
         <v>44916</v>
       </c>
       <c r="B219" s="19"/>
@@ -23431,7 +24934,7 @@
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" s="23">
+      <c r="A221" s="22">
         <v>44917</v>
       </c>
       <c r="B221" s="19"/>
@@ -23552,7 +25055,7 @@
       <c r="I225" s="19"/>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" s="23">
+      <c r="A226" s="22">
         <v>44918</v>
       </c>
       <c r="B226" s="19"/>
@@ -23611,7 +25114,7 @@
       <c r="I227" s="19"/>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" s="23">
+      <c r="A228" s="22">
         <v>44919</v>
       </c>
       <c r="B228" s="19"/>
@@ -23670,7 +25173,7 @@
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" s="23">
+      <c r="A230" s="22">
         <v>44920</v>
       </c>
       <c r="B230" s="19"/>
@@ -23696,7 +25199,7 @@
       <c r="I231" s="19"/>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="23">
+      <c r="A232" s="22">
         <v>44921</v>
       </c>
       <c r="B232" s="19"/>
@@ -23781,7 +25284,7 @@
       <c r="I234" s="19"/>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="23">
+      <c r="A235" s="22">
         <v>44922</v>
       </c>
       <c r="B235" s="19"/>
@@ -23840,7 +25343,7 @@
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="23">
+      <c r="A238" s="22">
         <v>44924</v>
       </c>
       <c r="B238" s="19"/>
@@ -23933,7 +25436,7 @@
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="23">
+      <c r="A242" s="22">
         <v>44925</v>
       </c>
       <c r="B242" s="19"/>
@@ -23987,7 +25490,7 @@
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" s="23">
+      <c r="A245" s="22">
         <v>44927</v>
       </c>
       <c r="B245" s="19"/>
@@ -24086,7 +25589,7 @@
       <c r="I248" s="19"/>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249" s="23">
+      <c r="A249" s="22">
         <v>44928</v>
       </c>
       <c r="B249" s="19"/>
@@ -24148,7 +25651,7 @@
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="23">
+      <c r="A251" s="22">
         <v>44929</v>
       </c>
       <c r="B251" s="19" t="s">
@@ -24267,7 +25770,7 @@
       <c r="I255" s="19"/>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" s="23">
+      <c r="A256" s="22">
         <v>44930</v>
       </c>
       <c r="B256" s="19"/>
@@ -24320,7 +25823,7 @@
       <c r="I257" s="19"/>
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="23">
+      <c r="A258" s="22">
         <v>44931</v>
       </c>
       <c r="B258" s="19"/>
@@ -24385,7 +25888,7 @@
       </c>
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" s="23">
+      <c r="A260" s="22">
         <v>44932</v>
       </c>
       <c r="B260" s="19"/>
@@ -24437,7 +25940,7 @@
       </c>
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="23">
+      <c r="A263" s="22">
         <v>44933</v>
       </c>
       <c r="B263" s="19"/>
@@ -24487,7 +25990,7 @@
       <c r="I264" s="19"/>
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="23">
+      <c r="A265" s="22">
         <v>44934</v>
       </c>
       <c r="B265" s="19"/>
@@ -24558,7 +26061,7 @@
       </c>
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A268" s="23">
+      <c r="A268" s="22">
         <v>44935</v>
       </c>
       <c r="B268" s="19"/>
@@ -24605,7 +26108,7 @@
       <c r="I269" s="19"/>
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270" s="23">
+      <c r="A270" s="22">
         <v>44936</v>
       </c>
       <c r="B270" s="19"/>
@@ -24720,7 +26223,7 @@
       <c r="I273" s="19"/>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274" s="23">
+      <c r="A274" s="22">
         <v>44937</v>
       </c>
       <c r="B274" s="19"/>
@@ -24798,7 +26301,7 @@
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A277" s="23">
+      <c r="A277" s="22">
         <v>44938</v>
       </c>
       <c r="B277" s="19"/>
@@ -24851,7 +26354,7 @@
       <c r="I278" s="19"/>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="23">
+      <c r="A279" s="22">
         <v>44939</v>
       </c>
       <c r="B279" s="19"/>
@@ -24907,7 +26410,7 @@
       <c r="I280" s="19"/>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A281" s="23">
+      <c r="A281" s="22">
         <v>44940</v>
       </c>
       <c r="B281" s="19"/>
@@ -25026,7 +26529,7 @@
       <c r="I285" s="19"/>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" s="23">
+      <c r="A286" s="22">
         <v>44941</v>
       </c>
       <c r="B286" s="19"/>
@@ -25085,7 +26588,7 @@
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="23">
+      <c r="A288" s="22">
         <v>44942</v>
       </c>
       <c r="B288" s="19"/>
@@ -25147,7 +26650,7 @@
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="23">
+      <c r="A290" s="22">
         <v>44943</v>
       </c>
       <c r="B290" s="19"/>
@@ -25194,7 +26697,7 @@
       <c r="I291" s="19"/>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="23">
+      <c r="A292" s="22">
         <v>44944</v>
       </c>
       <c r="B292" s="19"/>
@@ -25250,7 +26753,7 @@
       <c r="I293" s="19"/>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A294" s="23">
+      <c r="A294" s="22">
         <v>44945</v>
       </c>
       <c r="B294" s="19"/>
@@ -25341,7 +26844,7 @@
       <c r="I297" s="19"/>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="23">
+      <c r="A298" s="22">
         <v>44946</v>
       </c>
       <c r="B298" s="19"/>
@@ -25412,7 +26915,7 @@
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="23">
+      <c r="A301" s="22">
         <v>44948</v>
       </c>
       <c r="B301" s="19"/>
@@ -25459,7 +26962,7 @@
       <c r="I302" s="19"/>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="23">
+      <c r="A303" s="22">
         <v>44949</v>
       </c>
       <c r="B303" s="19"/>
@@ -25524,7 +27027,7 @@
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="23">
+      <c r="A305" s="22">
         <v>44950</v>
       </c>
       <c r="B305" s="19"/>
@@ -25594,7 +27097,7 @@
       </c>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="23">
+      <c r="A308" s="22">
         <v>44951</v>
       </c>
       <c r="B308" s="19"/>
@@ -25685,7 +27188,7 @@
       <c r="I311" s="19"/>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="23">
+      <c r="A312" s="22">
         <v>44952</v>
       </c>
       <c r="B312" s="19"/>
@@ -25755,7 +27258,7 @@
       <c r="I314" s="19"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="23">
+      <c r="A315" s="22">
         <v>44953</v>
       </c>
       <c r="B315" s="19"/>
@@ -25868,7 +27371,7 @@
       </c>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" s="23">
+      <c r="A319" s="22">
         <v>44956</v>
       </c>
       <c r="B319" s="19"/>
@@ -25991,7 +27494,7 @@
       </c>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A323" s="23">
+      <c r="A323" s="22">
         <v>44958</v>
       </c>
       <c r="B323" s="19"/>
@@ -26083,7 +27586,7 @@
       </c>
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" s="23">
+      <c r="A326" s="22">
         <v>44960</v>
       </c>
       <c r="B326" s="19"/>
@@ -26136,7 +27639,7 @@
       <c r="I327" s="19"/>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A328" s="23">
+      <c r="A328" s="22">
         <v>44961</v>
       </c>
       <c r="B328" s="19"/>
@@ -26206,7 +27709,7 @@
       <c r="I330" s="19"/>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A331" s="23">
+      <c r="A331" s="22">
         <v>44962</v>
       </c>
       <c r="B331" s="19"/>
@@ -26262,7 +27765,7 @@
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A333" s="23">
+      <c r="A333" s="22">
         <v>44963</v>
       </c>
       <c r="B333" s="19"/>
@@ -26321,7 +27824,7 @@
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A335" s="23">
+      <c r="A335" s="22">
         <v>44964</v>
       </c>
       <c r="B335" s="19"/>
@@ -26344,7 +27847,7 @@
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A337" s="23">
+      <c r="A337" s="22">
         <v>44965</v>
       </c>
       <c r="B337" s="19"/>
@@ -26419,7 +27922,7 @@
       <c r="I339" s="19"/>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A340" s="23">
+      <c r="A340" s="22">
         <v>44966</v>
       </c>
       <c r="B340" s="19"/>
@@ -26478,7 +27981,7 @@
       <c r="I341" s="19"/>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A342" s="23">
+      <c r="A342" s="22">
         <v>44967</v>
       </c>
       <c r="B342" s="19"/>
@@ -26548,7 +28051,7 @@
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A345" s="23">
+      <c r="A345" s="22">
         <v>44968</v>
       </c>
       <c r="B345" s="19"/>
@@ -26621,7 +28124,7 @@
       <c r="I347" s="19"/>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A348" s="23">
+      <c r="A348" s="22">
         <v>44969</v>
       </c>
       <c r="B348" s="19"/>
@@ -26683,7 +28186,7 @@
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A350" s="23">
+      <c r="A350" s="22">
         <v>44970</v>
       </c>
       <c r="B350" s="19"/>
@@ -26736,7 +28239,7 @@
       <c r="I351" s="19"/>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="23">
+      <c r="A352" s="22">
         <v>44971</v>
       </c>
       <c r="B352" s="19"/>
@@ -26843,7 +28346,7 @@
       <c r="I356" s="19"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A357" s="23">
+      <c r="A357" s="22">
         <v>44972</v>
       </c>
       <c r="B357" s="19"/>
@@ -26947,7 +28450,7 @@
       <c r="I361" s="19"/>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A362" s="23">
+      <c r="A362" s="22">
         <v>44973</v>
       </c>
       <c r="B362" s="19"/>
@@ -27059,7 +28562,7 @@
       <c r="I366" s="19"/>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A367" s="23">
+      <c r="A367" s="22">
         <v>44974</v>
       </c>
       <c r="B367" s="19"/>
@@ -27132,7 +28635,7 @@
       <c r="I369" s="19"/>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A370" s="23">
+      <c r="A370" s="22">
         <v>44975</v>
       </c>
       <c r="B370" s="19"/>
@@ -27202,7 +28705,7 @@
       <c r="I372" s="19"/>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A373" s="23">
+      <c r="A373" s="22">
         <v>44976</v>
       </c>
       <c r="B373" s="19"/>
@@ -27255,7 +28758,7 @@
       <c r="I374" s="19"/>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A375" s="23">
+      <c r="A375" s="22">
         <v>44977</v>
       </c>
       <c r="B375" s="19"/>
@@ -27302,7 +28805,7 @@
       <c r="I376" s="19"/>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A377" s="23">
+      <c r="A377" s="22">
         <v>44978</v>
       </c>
       <c r="B377" s="19"/>
@@ -27352,7 +28855,7 @@
       <c r="I378" s="19"/>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A379" s="23">
+      <c r="A379" s="22">
         <v>44979</v>
       </c>
       <c r="B379" s="19"/>
@@ -27405,7 +28908,7 @@
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A381" s="23">
+      <c r="A381" s="22">
         <v>44980</v>
       </c>
       <c r="B381" s="19"/>
@@ -27467,7 +28970,7 @@
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A384" s="23">
+      <c r="A384" s="22">
         <v>44982</v>
       </c>
       <c r="B384" s="19"/>
@@ -27520,7 +29023,7 @@
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A386" s="23">
+      <c r="A386" s="22">
         <v>44983</v>
       </c>
       <c r="B386" s="19"/>
@@ -27567,7 +29070,7 @@
       <c r="I387" s="19"/>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A388" s="23">
+      <c r="A388" s="22">
         <v>44984</v>
       </c>
       <c r="B388" s="19"/>
@@ -27617,7 +29120,7 @@
       <c r="I389" s="19"/>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A390" s="23">
+      <c r="A390" s="22">
         <v>44985</v>
       </c>
       <c r="B390" s="19"/>
@@ -27706,7 +29209,7 @@
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A393" s="23">
+      <c r="A393" s="22">
         <v>44987</v>
       </c>
       <c r="B393" s="19"/>
@@ -27764,7 +29267,7 @@
       <c r="I395" s="19"/>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A396" s="23">
+      <c r="A396" s="22">
         <v>44988</v>
       </c>
       <c r="B396" s="19"/>
@@ -27811,7 +29314,7 @@
       <c r="I397" s="19"/>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A398" s="23">
+      <c r="A398" s="22">
         <v>44989</v>
       </c>
       <c r="B398" s="19"/>
@@ -27879,7 +29382,7 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A401" s="23">
+      <c r="A401" s="22">
         <v>44991</v>
       </c>
       <c r="B401" s="19"/>
@@ -28228,13 +29731,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A619048F-C2D9-4200-95D7-308717BE1545}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="10" topLeftCell="F91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -28242,10 +29745,17 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.9140625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="22.4140625" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="10.4140625" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.9140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.4140625" customWidth="1"/>
+    <col min="15" max="15" width="22.25" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="14.58203125" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" customWidth="1"/>
     <col min="21" max="21" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28324,7 +29834,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>45358</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -28403,7 +29913,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>45361</v>
       </c>
       <c r="B6" s="19"/>
@@ -28450,7 +29960,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>45362</v>
       </c>
       <c r="B8" s="19"/>
@@ -28529,7 +30039,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>45364</v>
       </c>
       <c r="B11" s="19"/>
@@ -28636,7 +30146,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>45367</v>
       </c>
       <c r="B15" s="19"/>
@@ -28658,8 +30168,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="22">
         <v>45368</v>
       </c>
       <c r="B17" s="19"/>
@@ -28688,7 +30198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" t="s">
@@ -28711,7 +30221,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" t="s">
@@ -28731,8 +30241,8 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="23">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="22">
         <v>45369</v>
       </c>
       <c r="B20" s="19"/>
@@ -28758,7 +30268,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" t="s">
@@ -28778,8 +30288,8 @@
       </c>
       <c r="I21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="23">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="22">
         <v>45370</v>
       </c>
       <c r="B22" s="19"/>
@@ -28808,7 +30318,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" t="s">
@@ -28828,7 +30338,7 @@
       </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" t="s">
@@ -28848,8 +30358,8 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="23">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="22">
         <v>45371</v>
       </c>
       <c r="B25" s="19"/>
@@ -28878,7 +30388,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" t="s">
@@ -28898,7 +30408,7 @@
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>45372</v>
       </c>
@@ -28921,8 +30431,1781 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="26">
+        <v>45465</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E28">
+        <v>9251</v>
+      </c>
+      <c r="F28">
+        <v>815</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E29">
+        <v>27.35</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="M29" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26">
+        <v>45466</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E30">
+        <v>5.6</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1679</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1677</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E31">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="N31" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1671</v>
+      </c>
+      <c r="P31" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="N32" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1678</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="26">
+        <v>45467</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E33">
+        <v>1890</v>
+      </c>
+      <c r="F33">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E34">
+        <v>51.3</v>
+      </c>
+      <c r="F34">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="26">
+        <v>45469</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E36">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F36">
+        <v>120</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1693</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1694</v>
+      </c>
+      <c r="R36" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E37">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F37">
+        <v>120</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="M37" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="26">
+        <v>45470</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E38">
+        <v>12.9</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1697</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E39">
+        <v>40.6</v>
+      </c>
+      <c r="F39">
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1699</v>
+      </c>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E40">
+        <v>51.3</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26">
+        <v>45471</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E41">
+        <v>51.3</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1689</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E42">
+        <v>1500</v>
+      </c>
+      <c r="F42">
+        <v>155</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="K42" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L42" s="14">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E43">
+        <v>11.5</v>
+      </c>
+      <c r="F43">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="14">
+        <v>3</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="M43" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="26">
+        <v>45472</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E44">
+        <v>66.3</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1706</v>
+      </c>
+      <c r="R44" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E45">
+        <v>66.3</v>
+      </c>
+      <c r="F45">
+        <v>60</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>80</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E47">
+        <v>66</v>
+      </c>
+      <c r="F47">
+        <v>40</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="26">
+        <v>45473</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="I48" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1711</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1709</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>1710</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1708</v>
+      </c>
+      <c r="R48" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="M49" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="26">
+        <v>45474</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E50">
+        <v>7.56</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E51">
+        <v>79.8</v>
+      </c>
+      <c r="F51">
+        <v>140</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E52">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F52">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E53">
+        <v>58.5</v>
+      </c>
+      <c r="F53">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E54">
+        <v>78.2</v>
+      </c>
+      <c r="F54">
+        <v>51</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I54" s="27"/>
+      <c r="K54" t="s">
+        <v>1722</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1723</v>
+      </c>
+      <c r="U54" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E55">
+        <v>78.2</v>
+      </c>
+      <c r="F55">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I55" s="27"/>
+      <c r="K55" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="26">
+        <v>45475</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E56">
+        <v>78.2</v>
+      </c>
+      <c r="F56">
+        <v>51</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E57">
+        <v>629.25</v>
+      </c>
+      <c r="F57">
+        <v>540</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="26">
+        <v>45476</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E58">
+        <v>38.6</v>
+      </c>
+      <c r="F58">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E59">
+        <v>38.6</v>
+      </c>
+      <c r="F59">
+        <v>60</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E60">
+        <v>71.45</v>
+      </c>
+      <c r="F60">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E61">
+        <v>71.45</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E62">
+        <v>88.51</v>
+      </c>
+      <c r="F62">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="26">
+        <v>45477</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E63">
+        <v>100.7</v>
+      </c>
+      <c r="F63">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1735</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1732</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="C64" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E64">
+        <v>20.59</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E65">
+        <v>133</v>
+      </c>
+      <c r="F65">
+        <v>120</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I65" s="27"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E66">
+        <v>3.3</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I66" s="27"/>
+      <c r="M66" t="s">
+        <v>1738</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="26">
+        <v>45478</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E67">
+        <v>125</v>
+      </c>
+      <c r="F67">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E68">
+        <v>79</v>
+      </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H68" s="13">
+        <v>30</v>
+      </c>
+      <c r="I68" s="27"/>
+      <c r="M68" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E69">
+        <v>4.8</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="27"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E70">
+        <v>110</v>
+      </c>
+      <c r="F70">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="26">
+        <v>45479</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E72">
+        <v>140</v>
+      </c>
+      <c r="F72">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I72" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L72" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="M72" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N72" s="14">
+        <v>5.4</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E73">
+        <v>140</v>
+      </c>
+      <c r="F73">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I73" s="27"/>
+      <c r="K73" t="s">
+        <v>1756</v>
+      </c>
+      <c r="L73" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P73" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E74">
+        <v>2.6</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E75">
+        <v>2.6</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="27"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="26">
+        <v>45480</v>
+      </c>
+      <c r="B76" s="27"/>
+      <c r="C76" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I76" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I77" s="27"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
+      </c>
+      <c r="F78">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I78" s="27"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E79">
+        <v>120</v>
+      </c>
+      <c r="F79">
+        <v>70</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I79" s="27"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E80">
+        <v>90</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I80" s="27"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E81">
+        <v>45</v>
+      </c>
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I81" s="27"/>
+      <c r="P81" t="s">
+        <v>1767</v>
+      </c>
+      <c r="S81" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I83" s="27"/>
+      <c r="K83" t="s">
+        <v>1769</v>
+      </c>
+      <c r="L83" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E84">
+        <v>131</v>
+      </c>
+      <c r="F84">
+        <v>95</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I84" s="27"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E85">
+        <v>3.1</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H85" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="I85" s="27"/>
+      <c r="K85" t="s">
+        <v>1773</v>
+      </c>
+      <c r="L85" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="26">
+        <v>45481</v>
+      </c>
+      <c r="B86" s="27"/>
+      <c r="C86" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E86">
+        <v>63.2</v>
+      </c>
+      <c r="F86">
+        <v>47</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I86" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1784</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1771</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="I87" s="27"/>
+      <c r="K87" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E88">
+        <v>95.1</v>
+      </c>
+      <c r="F88">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I88" s="27"/>
+      <c r="K88" t="s">
+        <v>1783</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1780</v>
+      </c>
+      <c r="N88" s="13">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1776</v>
+      </c>
+      <c r="T88" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E89">
+        <v>29.7</v>
+      </c>
+      <c r="F89">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I89" s="27"/>
+      <c r="K89" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L89" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1781</v>
+      </c>
+      <c r="T89" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="26">
+        <v>45482</v>
+      </c>
+      <c r="B90" s="27"/>
+      <c r="C90" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E90">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="F90">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T90" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E92">
+        <v>81</v>
+      </c>
+      <c r="F92">
+        <v>70</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E93">
+        <v>76.5</v>
+      </c>
+      <c r="F93">
+        <v>73</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I93" s="27"/>
+      <c r="M93" t="s">
+        <v>1780</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E94">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I94" s="27"/>
+      <c r="R94" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I95" s="27"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H96" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="I96" s="27"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B97" s="27"/>
+      <c r="C97" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1797</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="64">
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="I86:I89"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="I90:I96"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="I76:I85"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="B47:B67"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="I17:I19"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I6:I7"/>
@@ -28935,14 +32218,6 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28964,13 +32239,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CD84AB-CF11-48A8-9845-52EF3CCB46BE}">
-  <dimension ref="A1:X179"/>
+  <dimension ref="A1:X184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="10" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="10" topLeftCell="H101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomRight" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -28979,6 +32254,7 @@
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="27.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29322,7 +32598,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="22">
+      <c r="A15" s="25">
         <v>44750</v>
       </c>
       <c r="B15" s="19"/>
@@ -29358,7 +32634,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="19"/>
       <c r="C16" s="2" t="s">
         <v>199</v>
@@ -29393,7 +32669,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>44751</v>
       </c>
       <c r="B17" s="19"/>
@@ -29431,7 +32707,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="19"/>
       <c r="C18" s="2" t="s">
         <v>206</v>
@@ -29506,7 +32782,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="23">
+      <c r="A22" s="22">
         <v>45373</v>
       </c>
       <c r="C22" t="s">
@@ -29524,7 +32800,7 @@
       <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="19" t="s">
         <v>123</v>
       </c>
       <c r="M22" t="s">
@@ -29551,7 +32827,7 @@
       <c r="H23">
         <v>2230</v>
       </c>
-      <c r="I23" s="26"/>
+      <c r="I23" s="19"/>
       <c r="M23" t="s">
         <v>1484</v>
       </c>
@@ -30171,24 +33447,53 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="1">
-        <v>45456</v>
-      </c>
-      <c r="I91" t="s">
-        <v>1476</v>
+      <c r="A91" s="26">
+        <v>45455</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D91" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91">
+        <v>2626</v>
+      </c>
+      <c r="F91">
+        <v>230</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="1">
-        <v>45457</v>
-      </c>
-      <c r="I92" t="s">
-        <v>1476</v>
-      </c>
+      <c r="A92" s="27"/>
+      <c r="C92" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E92">
+        <v>92</v>
+      </c>
+      <c r="F92">
+        <v>120</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I92" s="27"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
-        <v>45458</v>
+        <v>45456</v>
       </c>
       <c r="I93" t="s">
         <v>1476</v>
@@ -30196,7 +33501,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
-        <v>45459</v>
+        <v>45457</v>
       </c>
       <c r="I94" t="s">
         <v>1476</v>
@@ -30204,7 +33509,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
-        <v>45460</v>
+        <v>45458</v>
       </c>
       <c r="I95" t="s">
         <v>1476</v>
@@ -30212,460 +33517,635 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
-        <v>45461</v>
+        <v>45459</v>
       </c>
       <c r="I96" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="1">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="26">
+        <v>45460</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E97">
+        <v>47.9</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I97" s="27" t="s">
+        <v>1476</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1638</v>
+      </c>
+      <c r="N97">
+        <v>20000</v>
+      </c>
+      <c r="O97">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="27"/>
+      <c r="C98" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E98">
+        <v>19.7</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1656</v>
+      </c>
+      <c r="I98" s="27"/>
+      <c r="T98" t="s">
+        <v>1643</v>
+      </c>
+      <c r="U98" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="27"/>
+      <c r="C99" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E99">
+        <v>27.5</v>
+      </c>
+      <c r="F99">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I99" s="27"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="26">
+        <v>45461</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E100">
+        <v>36.9</v>
+      </c>
+      <c r="F100">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1651</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1652</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="27"/>
+      <c r="C101" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E101">
+        <v>36.9</v>
+      </c>
+      <c r="F101">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I101" s="27"/>
+      <c r="K101" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1">
         <v>45462</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I102" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="1">
+      <c r="M102" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1">
         <v>45463</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I103" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="1">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1">
         <v>45464</v>
       </c>
-      <c r="I99" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="1">
+      <c r="C104" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E104">
+        <v>92</v>
+      </c>
+      <c r="F104">
+        <v>120</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1">
         <v>45272</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C105" t="s">
         <v>1477</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D105" t="s">
         <v>1478</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I105" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="1">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1">
         <v>45273</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="1">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1">
         <v>45274</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="1">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1">
         <v>45275</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="1">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1">
         <v>45276</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="1">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1">
         <v>45277</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="1">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1">
         <v>45278</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="1">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1">
         <v>45279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="1">
-        <v>45280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="1">
-        <v>45281</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="1">
-        <v>45282</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="1">
-        <v>45283</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="1">
-        <v>45284</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
-        <v>45285</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
-        <v>45286</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
-        <v>45287</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
-        <v>45288</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
-        <v>45289</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
-        <v>45290</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
-        <v>45291</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
-        <v>45292</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
-        <v>45293</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
-        <v>45294</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
-        <v>45295</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
-        <v>45296</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
-        <v>45297</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
-        <v>45298</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
-        <v>45299</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
-        <v>45300</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
-        <v>45301</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1482</v>
-      </c>
-      <c r="I129" t="s">
-        <v>1480</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
-        <v>45302</v>
-      </c>
-      <c r="I130" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M130" t="s">
-        <v>1483</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
-        <v>45303</v>
+        <v>45298</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
-        <v>45304</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
-        <v>45305</v>
+        <v>45300</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
-        <v>45306</v>
+        <v>45301</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1482</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
-        <v>45307</v>
+        <v>45302</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1480</v>
+      </c>
+      <c r="M135" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
-        <v>45308</v>
+        <v>45303</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
-        <v>45309</v>
+        <v>45304</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
-        <v>45310</v>
+        <v>45305</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
-        <v>45311</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
-        <v>45312</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
-        <v>45313</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
-        <v>45314</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
-        <v>45315</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
-        <v>45316</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
-        <v>45317</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
-        <v>45318</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
-        <v>45319</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
-        <v>45320</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
-        <v>45321</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
-        <v>45322</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
-        <v>45323</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
-        <v>45324</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
-        <v>45325</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
-        <v>45326</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
-        <v>45327</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
-        <v>45328</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
-        <v>45329</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
-        <v>45330</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
-        <v>45331</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
-        <v>45332</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
-        <v>45333</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
-        <v>45334</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
-        <v>45335</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
-        <v>45336</v>
+        <v>45331</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
-        <v>45337</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
-        <v>45338</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
-        <v>45339</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
-        <v>45340</v>
+        <v>45335</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
-        <v>45341</v>
+        <v>45336</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
-        <v>45342</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
-        <v>45343</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
-        <v>45344</v>
+        <v>45339</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
-        <v>45345</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
-        <v>45346</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
-        <v>45347</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
-        <v>45348</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
-        <v>45349</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1">
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1">
         <v>45350</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="1"/>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="I100:I101"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="I3:I4"/>
@@ -30687,24 +34167,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E8279-2BDC-44CE-B7F8-837FCFA75579}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="10" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.08203125" customWidth="1"/>
     <col min="2" max="2" width="10.9140625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="20.4140625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.9140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="6.75" customWidth="1"/>
     <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="17" max="17" width="11.9140625" customWidth="1"/>
+    <col min="21" max="21" width="18.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -30782,10 +34268,10 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27">
+      <c r="A2" s="22">
         <v>45441</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>1474</v>
       </c>
       <c r="C2" t="s">
@@ -30803,7 +34289,7 @@
       <c r="G2" t="s">
         <v>1498</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="19" t="s">
         <v>1506</v>
       </c>
       <c r="K2" t="s">
@@ -30820,8 +34306,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" t="s">
         <v>1502</v>
       </c>
@@ -30840,13 +34326,13 @@
       <c r="H3" t="s">
         <v>1505</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27">
+      <c r="A4" s="22">
         <v>45442</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="19"/>
       <c r="C4" t="s">
         <v>1503</v>
       </c>
@@ -30862,7 +34348,7 @@
       <c r="G4" t="s">
         <v>1508</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="19" t="s">
         <v>1506</v>
       </c>
       <c r="N4" t="s">
@@ -30873,8 +34359,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" t="s">
         <v>1509</v>
       </c>
@@ -30890,7 +34376,7 @@
       <c r="G5" t="s">
         <v>1508</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="19"/>
       <c r="N5" t="s">
         <v>1505</v>
       </c>
@@ -30899,10 +34385,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27">
+      <c r="A6" s="22">
         <v>45443</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="19"/>
       <c r="C6" t="s">
         <v>1503</v>
       </c>
@@ -30918,13 +34404,13 @@
       <c r="G6" t="s">
         <v>1508</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="19" t="s">
         <v>1506</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" t="s">
         <v>1512</v>
       </c>
@@ -30943,7 +34429,7 @@
       <c r="H7" t="s">
         <v>1514</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="19"/>
       <c r="K7" t="s">
         <v>1516</v>
       </c>
@@ -30955,10 +34441,10 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27">
+      <c r="A8" s="22">
         <v>45444</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="19"/>
       <c r="C8" t="s">
         <v>1518</v>
       </c>
@@ -30977,7 +34463,7 @@
       <c r="H8" t="s">
         <v>1520</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="19" t="s">
         <v>1506</v>
       </c>
       <c r="K8" t="s">
@@ -30994,9 +34480,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="K9" t="s">
         <v>1523</v>
       </c>
@@ -31005,9 +34491,9 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="K10" t="s">
         <v>1525</v>
       </c>
@@ -31019,7 +34505,7 @@
       <c r="A11" s="1">
         <v>45445</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="19"/>
       <c r="C11" t="s">
         <v>1519</v>
       </c>
@@ -31049,10 +34535,10 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27">
+      <c r="A12" s="22">
         <v>45446</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="19"/>
       <c r="C12" t="s">
         <v>1528</v>
       </c>
@@ -31076,8 +34562,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" t="s">
         <v>1536</v>
       </c>
@@ -31098,8 +34584,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="26"/>
-      <c r="B14" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="27" t="s">
         <v>1541</v>
       </c>
       <c r="C14" t="s">
@@ -31122,13 +34608,1072 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1"/>
+      <c r="A15" s="22">
+        <v>45447</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E15">
+        <v>12.7</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1551</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="27"/>
+      <c r="C16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="N16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19"/>
+      <c r="B17" s="27"/>
+      <c r="C17" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="O17" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="22">
+        <v>45448</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E18">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19"/>
+      <c r="B19" s="27"/>
+      <c r="C19" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E19">
+        <v>4.8</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1561</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="K19" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E20">
+        <v>4.8</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1563</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="K20" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="19"/>
+      <c r="B21" s="27"/>
+      <c r="C21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E21">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1564</v>
+      </c>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19"/>
+      <c r="B22" s="27"/>
+      <c r="C22" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="22">
+        <v>45449</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E23">
+        <v>106</v>
+      </c>
+      <c r="F23">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="19"/>
+      <c r="B24" s="27"/>
+      <c r="C24" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E24">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="M24" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="19"/>
+      <c r="B25" s="27"/>
+      <c r="C25" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E25">
+        <v>3.1</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="K25" t="s">
+        <v>1578</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="19"/>
+      <c r="B26" s="27"/>
+      <c r="C26" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E26">
+        <v>4.7</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="Q26" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="26">
+        <v>45450</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E27">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1585</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E28">
+        <v>60.6</v>
+      </c>
+      <c r="F28">
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="K28" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E29">
+        <v>5.6</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E30">
+        <v>49.6</v>
+      </c>
+      <c r="F30">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1586</v>
+      </c>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="26">
+        <v>45451</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E31">
+        <v>3.1</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" t="s">
+        <v>378</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E32">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F32">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="M32" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E33">
+        <v>36.1</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>483</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="26">
+        <v>45452</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>483</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E36">
+        <v>36.1</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="K36" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E37">
+        <v>106</v>
+      </c>
+      <c r="F37">
+        <v>120</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I37" s="27"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E39">
+        <v>105</v>
+      </c>
+      <c r="F39">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="26">
+        <v>45453</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E41">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I42" s="27"/>
+      <c r="K42" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I43" s="27"/>
+      <c r="K43" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E44">
+        <v>76.5</v>
+      </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E45">
+        <v>3.3</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>483</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I45" s="27"/>
+      <c r="N45" t="s">
+        <v>1598</v>
+      </c>
+      <c r="R45" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E46">
+        <v>3.3</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>483</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>483</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="27"/>
+      <c r="C48" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E48">
+        <v>158</v>
+      </c>
+      <c r="F48">
+        <v>160</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="27"/>
+      <c r="C49" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E49">
+        <v>11.5</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="27"/>
+      <c r="C50" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>483</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="27"/>
+      <c r="C51" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E51">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="27"/>
+      <c r="C52" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E52">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E53">
+        <v>3.4</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
+        <v>45464</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E54">
+        <v>3236</v>
+      </c>
+      <c r="F54">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1605</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1663</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
+        <v>45465</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E55">
+        <v>1.8</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1667</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="25">
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="B14:B53"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="I35:I40"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="A12:A14"/>
@@ -31139,6 +35684,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="I18:I22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/japanese/総経費.xlsx
+++ b/documents/japanese/総経費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さたいん\Documents\projects\WorldTravelingLogger\documents\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59739315-65B1-427B-B843-8917CDFCC516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC38C12-D846-4EAB-B441-9700827FB3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="4" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5217" uniqueCount="2205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5319" uniqueCount="2243">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -12912,6 +12912,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>タクシー</t>
+  </si>
+  <si>
     <t>20ディルハム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -13163,6 +13166,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>25ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>60ディルハム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -13215,6 +13222,189 @@
   </si>
   <si>
     <t>160ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキ＋お茶</t>
+    <rPh sb="5" eb="6">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワルザザート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドミトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソーダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワルザザート宿</t>
+    <rPh sb="6" eb="7">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワルザザートターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パニーニ＋サラダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワルザザート市街地</t>
+    <rPh sb="6" eb="9">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>130ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルラシディア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナポリタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メクネスターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>140ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メクネス旧市街地</t>
+    <rPh sb="4" eb="5">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェスターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウジュダターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40ディルハム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウジュダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウジュダ宿</t>
+    <rPh sb="4" eb="5">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タクシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナドール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペイン国境</t>
+    <rPh sb="4" eb="6">
+      <t>コッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリリャ市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナドール港</t>
+    <rPh sb="4" eb="5">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルメリア港</t>
+    <rPh sb="5" eb="6">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナドールビーチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>340mad-&gt;31€</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出向港を間違える</t>
+    <rPh sb="0" eb="3">
+      <t>シュッコウミナト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビール＋おつまみ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -32012,13 +32202,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A619048F-C2D9-4200-95D7-308717BE1545}">
-  <dimension ref="A1:X302"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="F316" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6:I7"/>
+      <selection pane="bottomRight" activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -38979,8 +39169,8 @@
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="27"/>
-      <c r="B281" t="s">
-        <v>2146</v>
+      <c r="B281" s="27" t="s">
+        <v>2147</v>
       </c>
       <c r="C281" t="s">
         <v>2142</v>
@@ -38998,23 +39188,24 @@
         <v>383</v>
       </c>
       <c r="H281" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="I281" s="27"/>
       <c r="K281" t="s">
         <v>1806</v>
       </c>
       <c r="L281" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="27"/>
+      <c r="B282" s="27"/>
       <c r="C282" t="s">
         <v>2144</v>
       </c>
       <c r="D282" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="E282">
         <v>74.599999999999994</v>
@@ -39026,23 +39217,24 @@
         <v>26</v>
       </c>
       <c r="H282" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="I282" s="27"/>
       <c r="K282" t="s">
         <v>1830</v>
       </c>
       <c r="L282" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="27"/>
+      <c r="B283" s="27"/>
       <c r="C283" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="D283" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="E283">
         <v>5</v>
@@ -39054,25 +39246,26 @@
         <v>26</v>
       </c>
       <c r="H283" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I283" s="27"/>
       <c r="K283" t="s">
         <v>1809</v>
       </c>
       <c r="L283" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="26">
         <v>44789</v>
       </c>
+      <c r="B284" s="27"/>
       <c r="C284" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="D284" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E284">
         <v>5.0999999999999996</v>
@@ -39084,7 +39277,7 @@
         <v>26</v>
       </c>
       <c r="H284" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="I284" s="27" t="s">
         <v>21</v>
@@ -39093,16 +39286,17 @@
         <v>1847</v>
       </c>
       <c r="L284" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="27"/>
+      <c r="B285" s="27"/>
       <c r="C285" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="D285" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="E285">
         <v>128</v>
@@ -39114,28 +39308,29 @@
         <v>26</v>
       </c>
       <c r="H285" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="I285" s="27"/>
       <c r="K285" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="L285" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="Q285" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="26">
         <v>44790</v>
       </c>
+      <c r="B286" s="27"/>
       <c r="C286" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="D286" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="E286">
         <v>212</v>
@@ -39147,7 +39342,7 @@
         <v>26</v>
       </c>
       <c r="H286" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="I286" s="27" t="s">
         <v>21</v>
@@ -39156,25 +39351,26 @@
         <v>1809</v>
       </c>
       <c r="L286" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="M286" t="s">
         <v>1854</v>
       </c>
       <c r="N286" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="T286" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="27"/>
+      <c r="B287" s="27"/>
       <c r="C287" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D287" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="E287">
         <v>4.4000000000000004</v>
@@ -39186,31 +39382,32 @@
         <v>383</v>
       </c>
       <c r="H287" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="I287" s="27"/>
       <c r="K287" t="s">
         <v>2074</v>
       </c>
       <c r="L287" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="T287" t="s">
+        <v>2169</v>
+      </c>
+      <c r="U287" t="s">
         <v>2168</v>
-      </c>
-      <c r="U287" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="26">
         <v>44791</v>
       </c>
+      <c r="B288" s="27"/>
       <c r="C288" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D288" t="s">
         <v>2177</v>
-      </c>
-      <c r="D288" t="s">
-        <v>2176</v>
       </c>
       <c r="E288">
         <v>70.3</v>
@@ -39222,7 +39419,7 @@
         <v>1801</v>
       </c>
       <c r="H288" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="I288" s="27" t="s">
         <v>21</v>
@@ -39231,16 +39428,17 @@
         <v>1847</v>
       </c>
       <c r="L288" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="27"/>
+      <c r="B289" s="27"/>
       <c r="C289" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D289" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="E289">
         <v>3.3</v>
@@ -39252,58 +39450,62 @@
         <v>1998</v>
       </c>
       <c r="H289" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I289" s="27"/>
       <c r="K289" t="s">
         <v>1809</v>
       </c>
       <c r="L289" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="M289" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="27"/>
+      <c r="B290" s="27"/>
       <c r="I290" s="27"/>
       <c r="K290" t="s">
         <v>1932</v>
       </c>
       <c r="L290" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="27"/>
+      <c r="B291" s="27"/>
       <c r="I291" s="27"/>
       <c r="K291" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="L291" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="27"/>
+      <c r="B292" s="27"/>
       <c r="I292" s="27"/>
       <c r="K292" t="s">
         <v>1949</v>
       </c>
       <c r="L292" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="26">
         <v>44792</v>
       </c>
+      <c r="B293" s="27"/>
       <c r="C293" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D293" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="E293">
         <v>3.3</v>
@@ -39315,7 +39517,7 @@
         <v>1998</v>
       </c>
       <c r="H293" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I293" s="27" t="s">
         <v>1831</v>
@@ -39323,11 +39525,12 @@
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="27"/>
+      <c r="B294" s="27"/>
       <c r="C294" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="D294" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="E294">
         <v>199</v>
@@ -39339,17 +39542,18 @@
         <v>1801</v>
       </c>
       <c r="H294" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="I294" s="27"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="27"/>
+      <c r="B295" s="27"/>
       <c r="C295" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D295" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E295">
         <v>6</v>
@@ -39361,29 +39565,30 @@
         <v>1959</v>
       </c>
       <c r="H295" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I295" s="27"/>
       <c r="K295" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="L295" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="Q295" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="T295" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="27"/>
+      <c r="B296" s="27"/>
       <c r="C296" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="D296" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="E296">
         <v>6</v>
@@ -39395,7 +39600,7 @@
         <v>1792</v>
       </c>
       <c r="H296" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I296" s="27"/>
     </row>
@@ -39403,11 +39608,12 @@
       <c r="A297" s="26">
         <v>44793</v>
       </c>
+      <c r="B297" s="27"/>
       <c r="C297" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D297" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -39419,28 +39625,29 @@
         <v>1792</v>
       </c>
       <c r="H297" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I297" s="27" t="s">
         <v>21</v>
       </c>
       <c r="M297" t="s">
+        <v>2189</v>
+      </c>
+      <c r="N297" t="s">
+        <v>2151</v>
+      </c>
+      <c r="Q297" t="s">
         <v>2188</v>
-      </c>
-      <c r="N297" t="s">
-        <v>2150</v>
-      </c>
-      <c r="Q297" t="s">
-        <v>2187</v>
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="27"/>
+      <c r="B298" s="27"/>
       <c r="C298" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="D298" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="E298">
         <v>454</v>
@@ -39452,7 +39659,7 @@
         <v>1998</v>
       </c>
       <c r="H298" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="I298" s="27"/>
     </row>
@@ -39460,11 +39667,12 @@
       <c r="A299" s="26">
         <v>44794</v>
       </c>
+      <c r="B299" s="27"/>
       <c r="C299" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="D299" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="E299">
         <v>175</v>
@@ -39476,37 +39684,38 @@
         <v>1998</v>
       </c>
       <c r="H299" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="I299" s="27" t="s">
         <v>1831</v>
       </c>
       <c r="K299" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="L299" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="N299" t="s">
+        <v>2197</v>
+      </c>
+      <c r="O299" t="s">
         <v>2195</v>
       </c>
-      <c r="O299" t="s">
+      <c r="Q299" t="s">
+        <v>2193</v>
+      </c>
+      <c r="U299" t="s">
         <v>2194</v>
-      </c>
-      <c r="Q299" t="s">
-        <v>2192</v>
-      </c>
-      <c r="U299" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="27"/>
+      <c r="B300" s="27"/>
       <c r="C300" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="D300" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="E300">
         <v>95.7</v>
@@ -39518,25 +39727,26 @@
         <v>1998</v>
       </c>
       <c r="H300" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="I300" s="27"/>
       <c r="M300" t="s">
         <v>1854</v>
       </c>
       <c r="N300" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>44795</v>
       </c>
+      <c r="B301" s="27"/>
       <c r="C301" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="D301" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="E301">
         <v>323</v>
@@ -39548,25 +39758,577 @@
         <v>1998</v>
       </c>
       <c r="H301" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="I301" t="s">
         <v>21</v>
       </c>
       <c r="K301" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="M301" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>44796</v>
       </c>
+      <c r="B302" s="27"/>
+      <c r="I302" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="26">
+        <v>44797</v>
+      </c>
+      <c r="B303" s="27"/>
+      <c r="I303" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K303" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L303" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="27"/>
+      <c r="B304" s="27"/>
+      <c r="I304" s="27"/>
+      <c r="K304" t="s">
+        <v>2209</v>
+      </c>
+      <c r="L304" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="26">
+        <v>45529</v>
+      </c>
+      <c r="B305" s="27"/>
+      <c r="C305" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E305">
+        <v>193</v>
+      </c>
+      <c r="F305">
+        <v>260</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H305" t="s">
+        <v>2211</v>
+      </c>
+      <c r="I305" s="27" t="s">
+        <v>2212</v>
+      </c>
+      <c r="K305" t="s">
+        <v>2213</v>
+      </c>
+      <c r="L305" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="27"/>
+      <c r="B306" s="27"/>
+      <c r="C306" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E306">
+        <v>6.7</v>
+      </c>
+      <c r="F306">
+        <v>5</v>
+      </c>
+      <c r="G306" t="s">
+        <v>383</v>
+      </c>
+      <c r="H306" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I306" s="27"/>
+      <c r="K306" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="26">
+        <v>45530</v>
+      </c>
+      <c r="B307" s="27"/>
+      <c r="C307" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E307">
+        <v>6.7</v>
+      </c>
+      <c r="F307">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>2145</v>
+      </c>
+      <c r="H307" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I307" s="27" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K307" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="27"/>
+      <c r="B308" s="27"/>
+      <c r="C308" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E308">
+        <v>307</v>
+      </c>
+      <c r="F308">
+        <v>310</v>
+      </c>
+      <c r="G308" t="s">
+        <v>26</v>
+      </c>
+      <c r="H308" t="s">
+        <v>2219</v>
+      </c>
+      <c r="I308" s="27"/>
+      <c r="K308" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L308" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="27"/>
+      <c r="B309" s="27"/>
+      <c r="I309" s="27"/>
+      <c r="K309" t="s">
+        <v>2221</v>
+      </c>
+      <c r="L309" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="26">
+        <v>45531</v>
+      </c>
+      <c r="B310" s="27"/>
+      <c r="C310" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D310" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E310">
+        <v>326</v>
+      </c>
+      <c r="F310">
+        <v>380</v>
+      </c>
+      <c r="G310" t="s">
+        <v>26</v>
+      </c>
+      <c r="H310" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I310" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K310" t="s">
+        <v>2175</v>
+      </c>
+      <c r="L310" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="27"/>
+      <c r="B311" s="27"/>
+      <c r="C311" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E311">
+        <v>6</v>
+      </c>
+      <c r="F311">
+        <v>15</v>
+      </c>
+      <c r="G311" t="s">
+        <v>26</v>
+      </c>
+      <c r="I311" s="27"/>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="26">
+        <v>45532</v>
+      </c>
+      <c r="B312" s="27"/>
+      <c r="C312" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D312" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E312">
+        <v>3.3</v>
+      </c>
+      <c r="F312">
+        <v>15</v>
+      </c>
+      <c r="G312" t="s">
+        <v>26</v>
+      </c>
+      <c r="H312" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I312" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K312" t="s">
+        <v>2175</v>
+      </c>
+      <c r="L312" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="27"/>
+      <c r="B313" s="27"/>
+      <c r="C313" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D313" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E313">
+        <v>70.3</v>
+      </c>
+      <c r="F313">
+        <v>60</v>
+      </c>
+      <c r="G313" t="s">
+        <v>26</v>
+      </c>
+      <c r="H313" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I313" s="27"/>
+      <c r="K313" t="s">
+        <v>1847</v>
+      </c>
+      <c r="L313" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="27"/>
+      <c r="B314" s="27"/>
+      <c r="C314" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D314" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E314">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F314">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>383</v>
+      </c>
+      <c r="H314" t="s">
+        <v>2203</v>
+      </c>
+      <c r="I314" s="27"/>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="26">
+        <v>45533</v>
+      </c>
+      <c r="B315" s="27"/>
+      <c r="C315" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D315" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E315">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F315">
+        <v>10</v>
+      </c>
+      <c r="G315" t="s">
+        <v>383</v>
+      </c>
+      <c r="H315" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I315" s="27" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K315" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="27"/>
+      <c r="B316" s="27"/>
+      <c r="C316" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E316">
+        <v>331</v>
+      </c>
+      <c r="F316">
+        <v>270</v>
+      </c>
+      <c r="G316" t="s">
+        <v>26</v>
+      </c>
+      <c r="H316" t="s">
+        <v>2219</v>
+      </c>
+      <c r="I316" s="27"/>
+      <c r="K316" t="s">
+        <v>2228</v>
+      </c>
+      <c r="L316" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="27"/>
+      <c r="B317" s="27"/>
+      <c r="I317" s="27"/>
+      <c r="K317" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L317" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="26">
+        <v>45534</v>
+      </c>
+      <c r="B318" s="27"/>
+      <c r="C318" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D318" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318">
+        <v>5</v>
+      </c>
+      <c r="G318" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H318" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I318" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="27"/>
+      <c r="B319" s="27"/>
+      <c r="C319" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D319" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E319">
+        <v>137</v>
+      </c>
+      <c r="F319">
+        <v>195</v>
+      </c>
+      <c r="G319" t="s">
+        <v>26</v>
+      </c>
+      <c r="H319" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I319" s="27"/>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="27"/>
+      <c r="B320" s="27"/>
+      <c r="C320" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D320" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E320">
+        <v>12.3</v>
+      </c>
+      <c r="F320">
+        <v>30</v>
+      </c>
+      <c r="G320" t="s">
+        <v>26</v>
+      </c>
+      <c r="H320" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I320" s="27"/>
+      <c r="Q320" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="27"/>
+      <c r="B321" s="27" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E321">
+        <v>3.5</v>
+      </c>
+      <c r="F321">
+        <v>10</v>
+      </c>
+      <c r="G321" t="s">
+        <v>383</v>
+      </c>
+      <c r="H321" s="13">
+        <v>7</v>
+      </c>
+      <c r="I321" s="27"/>
+      <c r="K321" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L321" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="M321" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="27"/>
+      <c r="B322" s="27"/>
+      <c r="C322" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E322">
+        <v>3.5</v>
+      </c>
+      <c r="F322">
+        <v>15</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H322" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I322" s="27"/>
+      <c r="M322" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="27"/>
+      <c r="B323" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E323">
+        <v>186</v>
+      </c>
+      <c r="F323">
+        <v>300</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H323" s="13">
+        <v>50</v>
+      </c>
+      <c r="I323" s="27"/>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1440</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="185">
+  <mergeCells count="201">
+    <mergeCell ref="I315:I317"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="A318:A323"/>
+    <mergeCell ref="B281:B320"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="I318:I323"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="I310:I311"/>
+    <mergeCell ref="I312:I314"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="I303:I304"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="I305:I306"/>
+    <mergeCell ref="A307:A309"/>
+    <mergeCell ref="I307:I309"/>
     <mergeCell ref="A293:A296"/>
     <mergeCell ref="I293:I296"/>
     <mergeCell ref="A297:A298"/>

--- a/documents/japanese/総経費.xlsx
+++ b/documents/japanese/総経費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さたいん\Documents\projects\WorldTravelingLogger\documents\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FE375-89F1-439F-BA32-21BE7B87CDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F89B596-6641-4558-BA15-0DFD8F343E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="1" activeTab="2" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
   </bookViews>
   <sheets>
     <sheet name="オーストラリア" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8533" uniqueCount="3774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8534" uniqueCount="3776">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -22265,6 +22265,14 @@
     <rPh sb="10" eb="11">
       <t>ケン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>palm cove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80P</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -22500,7 +22508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -22564,10 +22572,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -22622,6 +22630,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22940,9 +22951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613FC116-CF69-4500-95A9-9EFEB7CBCA05}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+    <sheetView topLeftCell="A64" zoomScale="95" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -23063,7 +23074,7 @@
       <c r="H2" s="4" t="s">
         <v>3398</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J2" s="20" t="s">
@@ -23107,7 +23118,7 @@
       <c r="A4" s="6">
         <v>44700</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
@@ -23813,7 +23824,7 @@
         <v>44711</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -23854,7 +23865,7 @@
     <row r="30" spans="1:23">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -23871,7 +23882,7 @@
         <v>44712</v>
       </c>
       <c r="B31" s="20"/>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -24357,7 +24368,7 @@
         <v>78</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>3774</v>
       </c>
       <c r="E49">
         <v>25.4</v>
@@ -25294,8 +25305,8 @@
         <v>44738</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
       <c r="I78" s="20" t="s">
@@ -25312,8 +25323,8 @@
     <row r="79" spans="1:23">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="I79" s="20"/>
@@ -25369,9 +25380,9 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="G46:G47"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="I9:I10"/>
@@ -25386,6 +25397,14 @@
     <mergeCell ref="J24:J28"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="I40:I43"/>
     <mergeCell ref="B4:B79"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
@@ -25402,9 +25421,14 @@
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="C35:C37"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="I71:I72"/>
     <mergeCell ref="I73:I75"/>
     <mergeCell ref="I2:I3"/>
@@ -25425,33 +25449,16 @@
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A56:A57"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="G29:G31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="D35:D37"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="G46:G47"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A35:A37"/>
@@ -25470,6 +25477,10 @@
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25481,10 +25492,10 @@
   <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="8" topLeftCell="F52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M67" sqref="M67"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -26366,7 +26377,7 @@
     <row r="31" spans="1:21">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>258</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -26626,10 +26637,10 @@
         <v>44771</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>280</v>
       </c>
       <c r="E41" s="20">
@@ -27229,9 +27240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC482FDA-D049-4E54-B778-0B814DD968C3}">
   <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N167" sqref="N167"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -27538,6 +27549,9 @@
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
+      <c r="N8" t="s">
+        <v>3775</v>
+      </c>
       <c r="T8" t="s">
         <v>333</v>
       </c>
@@ -28831,7 +28845,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="20"/>
-      <c r="B53" t="s">
+      <c r="B53" s="41" t="s">
         <v>409</v>
       </c>
       <c r="C53" t="s">
@@ -28863,9 +28877,7 @@
     </row>
     <row r="54" spans="1:21" ht="54">
       <c r="A54" s="20"/>
-      <c r="B54" s="20" t="s">
-        <v>320</v>
-      </c>
+      <c r="B54" s="41"/>
       <c r="C54" t="s">
         <v>408</v>
       </c>
@@ -28894,7 +28906,7 @@
       <c r="A55" s="23">
         <v>44803</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="41"/>
       <c r="C55" t="s">
         <v>412</v>
       </c>
@@ -28928,7 +28940,7 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="20" t="s">
         <v>413</v>
       </c>
@@ -28958,7 +28970,7 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="I57" s="20"/>
@@ -28978,7 +28990,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="I58" s="20"/>
@@ -28998,7 +29010,7 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="I59" s="20"/>
@@ -29018,7 +29030,7 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="I60" s="20"/>
@@ -29037,7 +29049,7 @@
       <c r="A61" s="23">
         <v>44804</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="41"/>
       <c r="C61" t="s">
         <v>436</v>
       </c>
@@ -29071,7 +29083,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="41"/>
       <c r="C62" t="s">
         <v>437</v>
       </c>
@@ -29109,7 +29121,7 @@
       <c r="A63" s="23">
         <v>44805</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="41"/>
       <c r="C63" t="s">
         <v>436</v>
       </c>
@@ -29137,7 +29149,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="41"/>
       <c r="C64" t="s">
         <v>424</v>
       </c>
@@ -29167,7 +29179,7 @@
       <c r="A65" s="1">
         <v>44806</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="41"/>
       <c r="I65" t="s">
         <v>28</v>
       </c>
@@ -29191,7 +29203,7 @@
       <c r="A66" s="23">
         <v>44807</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="41"/>
       <c r="C66" t="s">
         <v>443</v>
       </c>
@@ -29225,7 +29237,9 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="41" t="s">
+        <v>320</v>
+      </c>
       <c r="C67" t="s">
         <v>444</v>
       </c>
@@ -29251,7 +29265,7 @@
       <c r="A68" s="1">
         <v>44808</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="41"/>
       <c r="I68" t="s">
         <v>19</v>
       </c>
@@ -29263,7 +29277,7 @@
       <c r="A69" s="23">
         <v>44809</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="41"/>
       <c r="C69" t="s">
         <v>384</v>
       </c>
@@ -29291,7 +29305,7 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="41"/>
       <c r="C70" t="s">
         <v>447</v>
       </c>
@@ -29317,7 +29331,7 @@
       <c r="A71" s="23">
         <v>44810</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="41"/>
       <c r="C71" t="s">
         <v>446</v>
       </c>
@@ -31768,7 +31782,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="176">
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
@@ -31847,6 +31861,7 @@
     <mergeCell ref="I124:I125"/>
     <mergeCell ref="A109:A111"/>
     <mergeCell ref="A112:A113"/>
+    <mergeCell ref="I112:I113"/>
     <mergeCell ref="J153:J156"/>
     <mergeCell ref="J157:J158"/>
     <mergeCell ref="J148:J151"/>
@@ -31857,7 +31872,6 @@
     <mergeCell ref="J131:J132"/>
     <mergeCell ref="J124:J125"/>
     <mergeCell ref="J133:J135"/>
-    <mergeCell ref="I112:I113"/>
     <mergeCell ref="A117:A119"/>
     <mergeCell ref="I117:I119"/>
     <mergeCell ref="J102:J104"/>
@@ -31879,7 +31893,6 @@
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="I69:I70"/>
     <mergeCell ref="B3:B52"/>
-    <mergeCell ref="B54:B71"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="I49:I51"/>
@@ -31891,6 +31904,7 @@
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="D56:D60"/>
+    <mergeCell ref="B53:B66"/>
     <mergeCell ref="I74:I75"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A78"/>
@@ -31902,6 +31916,7 @@
     <mergeCell ref="I82:I83"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B67:B71"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="I84:I85"/>
     <mergeCell ref="A86:A88"/>
@@ -43342,6 +43357,15 @@
     <mergeCell ref="I136:I139"/>
     <mergeCell ref="A48:A51"/>
     <mergeCell ref="I48:I51"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="I61:I65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="A69:A71"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A8"/>
@@ -43366,15 +43390,6 @@
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="I61:I65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="I72:I78"/>
     <mergeCell ref="A79:A81"/>
@@ -63888,11 +63903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CD84AB-CF11-48A8-9845-52EF3CCB46BE}">
   <dimension ref="A1:X238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="10" topLeftCell="K178" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
+    <sheetView topLeftCell="C12" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -63986,7 +63998,7 @@
       <c r="A2" s="3">
         <v>44697</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -64117,7 +64129,7 @@
       <c r="H5" t="s">
         <v>3394</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>3255</v>
       </c>
       <c r="W5" s="7"/>
@@ -64186,7 +64198,7 @@
       <c r="A8" s="6">
         <v>44740</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>189</v>
       </c>
       <c r="C8" s="2"/>
@@ -64549,7 +64561,7 @@
       <c r="H24">
         <v>2310</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="25" t="s">

--- a/documents/japanese/総経費.xlsx
+++ b/documents/japanese/総経費.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さたいん\Documents\projects\WorldTravelingLogger\documents\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9B1A76-C6DF-47B9-8B17-3CB73F2F4D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691FBF5-CCBF-4658-B28E-05E3A7B9D527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" activeTab="5" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" firstSheet="3" activeTab="4" xr2:uid="{5F05142D-C41B-44D9-8F35-9D1D2446633D}"/>
   </bookViews>
   <sheets>
     <sheet name="オーストラリア" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8584" uniqueCount="3808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8881" uniqueCount="3972">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -22528,6 +22528,879 @@
     <rPh sb="3" eb="4">
       <t>エン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西広島駅</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩国駅</t>
+    <rPh sb="0" eb="2">
+      <t>イワクニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳山駅</t>
+    <rPh sb="0" eb="2">
+      <t>トクヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下関駅</t>
+    <rPh sb="0" eb="2">
+      <t>シモノセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下関港</t>
+    <rPh sb="0" eb="2">
+      <t>シモノセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>門司港</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>門司港駅</t>
+    <rPh sb="0" eb="3">
+      <t>モジミナト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小倉駅</t>
+    <rPh sb="0" eb="2">
+      <t>コクラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小倉駅</t>
+    <rPh sb="0" eb="3">
+      <t>コクラエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博多駅</t>
+    <rPh sb="0" eb="2">
+      <t>ハカタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博多駅</t>
+    <rPh sb="0" eb="3">
+      <t>ハカタエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡空港</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>260円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下鉄</t>
+    <rPh sb="0" eb="3">
+      <t>チカテツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁川空港</t>
+    <rPh sb="0" eb="4">
+      <t>インチョンクウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行機</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仁川空港</t>
+    <rPh sb="0" eb="2">
+      <t>インチョン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーハ空港</t>
+    <rPh sb="3" eb="5">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イスタンブール空港</t>
+    <rPh sb="7" eb="9">
+      <t>クウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼</t>
+    <rPh sb="0" eb="1">
+      <t>ヒル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふぐせん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45340円</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イスタンブール市街地</t>
+    <rPh sb="7" eb="10">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>350リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イスタンブール港</t>
+    <rPh sb="7" eb="8">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八百屋</t>
+    <rPh sb="0" eb="3">
+      <t>ヤオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハチミツ40g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>26リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨーグルトサラダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミット3つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イスタンブールカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食パン</t>
+    <rPh sb="0" eb="1">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イスタンブール宿</t>
+    <rPh sb="7" eb="8">
+      <t>ヤド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルサ港</t>
+    <rPh sb="3" eb="4">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エメッキ駅</t>
+    <rPh sb="4" eb="5">
+      <t>エキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルサ市街地</t>
+    <rPh sb="3" eb="6">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルサターミナル</t>
+  </si>
+  <si>
+    <t>ブルサターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスキシュヒルターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エスキシュヒル市街地</t>
+  </si>
+  <si>
+    <t>アンカラターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンカラ市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2739円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2707円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>340リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロカンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>56リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>175リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おかし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>319リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミットドーナツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>168.27リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョルムターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョルム市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>68リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個室</t>
+    <rPh sb="0" eb="2">
+      <t>コシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アマスヤターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムスンターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムスンターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムスン市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムスン港</t>
+    <rPh sb="4" eb="5">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.25リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個室</t>
+    <rPh sb="0" eb="2">
+      <t>コシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>720リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩窟墳墓</t>
+    <rPh sb="0" eb="4">
+      <t>ガンクツフンボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピダ＋アイラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>135リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トイレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆでコーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂糖菓子五個</t>
+    <rPh sb="0" eb="4">
+      <t>サトウガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブゾンターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アマスヤ市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブゾン市街地</t>
+    <rPh sb="5" eb="8">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナルのパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お菓子</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>130リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラブゾンターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルズルムターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>550リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個室</t>
+    <rPh sb="0" eb="2">
+      <t>コシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヤソフィア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央公園</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗合バス</t>
+    <rPh sb="0" eb="2">
+      <t>ノリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗合バス</t>
+    <rPh sb="0" eb="2">
+      <t>ノリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルズルム市街地</t>
+    <rPh sb="5" eb="8">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>265リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>105リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルズルム城</t>
+    <rPh sb="5" eb="6">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホパターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サルピ国境</t>
+    <rPh sb="3" eb="5">
+      <t>コッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトゥミ市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドミトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バトゥミターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クタイシターミナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クタイシ市街地</t>
+    <rPh sb="4" eb="7">
+      <t>シガイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン二つ</t>
+    <rPh sb="2" eb="3">
+      <t>フタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30リラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランドリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜ご飯</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.53ラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トビリシターミナル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -22763,7 +23636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -22885,6 +23758,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32222,10 +33098,10 @@
   <dimension ref="A1:X402"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F289" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="F279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:H2"/>
+      <selection pane="bottomRight" activeCell="C286" sqref="C286:H287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -43733,13 +44609,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A619048F-C2D9-4200-95D7-308717BE1545}">
-  <dimension ref="A1:X696"/>
+  <dimension ref="A1:X746"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F622" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="10" topLeftCell="F741" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H627" sqref="H627"/>
+      <selection pane="bottomRight" activeCell="G746" sqref="G746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -63541,6 +64417,1142 @@
         <v>2933</v>
       </c>
       <c r="I696" s="20"/>
+    </row>
+    <row r="697" spans="1:15">
+      <c r="A697" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B697" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C697" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D697" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E697">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F697">
+        <v>35</v>
+      </c>
+      <c r="G697" t="s">
+        <v>3822</v>
+      </c>
+      <c r="H697" t="s">
+        <v>3834</v>
+      </c>
+      <c r="I697" t="s">
+        <v>19</v>
+      </c>
+      <c r="J697" t="s">
+        <v>3833</v>
+      </c>
+      <c r="K697" t="s">
+        <v>3837</v>
+      </c>
+      <c r="L697" t="s">
+        <v>3838</v>
+      </c>
+      <c r="M697" t="s">
+        <v>3845</v>
+      </c>
+      <c r="N697" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="698" spans="1:15">
+      <c r="C698" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D698" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E698">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F698">
+        <v>30</v>
+      </c>
+      <c r="G698" t="s">
+        <v>3822</v>
+      </c>
+      <c r="H698" t="s">
+        <v>3836</v>
+      </c>
+      <c r="K698" t="s">
+        <v>3839</v>
+      </c>
+      <c r="L698" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="699" spans="1:15">
+      <c r="K699" t="s">
+        <v>3841</v>
+      </c>
+      <c r="L699" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="700" spans="1:15">
+      <c r="K700" t="s">
+        <v>3844</v>
+      </c>
+      <c r="L700" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="702" spans="1:15">
+      <c r="K702" t="s">
+        <v>3848</v>
+      </c>
+      <c r="L702" t="s">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="703" spans="1:15">
+      <c r="A703" s="1">
+        <v>44655</v>
+      </c>
+      <c r="C703" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D703" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E703">
+        <v>2</v>
+      </c>
+      <c r="F703">
+        <v>5</v>
+      </c>
+      <c r="G703" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H703" t="s">
+        <v>3862</v>
+      </c>
+      <c r="I703" t="s">
+        <v>3781</v>
+      </c>
+      <c r="J703" t="s">
+        <v>3860</v>
+      </c>
+      <c r="K703" t="s">
+        <v>3863</v>
+      </c>
+      <c r="L703" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="704" spans="1:15">
+      <c r="C704" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D704" t="s">
+        <v>3851</v>
+      </c>
+      <c r="E704">
+        <v>100</v>
+      </c>
+      <c r="F704">
+        <v>155</v>
+      </c>
+      <c r="G704" t="s">
+        <v>3800</v>
+      </c>
+      <c r="H704" t="s">
+        <v>3865</v>
+      </c>
+      <c r="K704" t="s">
+        <v>2306</v>
+      </c>
+      <c r="L704" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="705" spans="1:20">
+      <c r="C705" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D705" t="s">
+        <v>3852</v>
+      </c>
+      <c r="E705">
+        <v>13.1</v>
+      </c>
+      <c r="F705">
+        <v>30</v>
+      </c>
+      <c r="G705" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H705" t="s">
+        <v>3866</v>
+      </c>
+      <c r="K705" t="s">
+        <v>3846</v>
+      </c>
+      <c r="L705" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="706" spans="1:20">
+      <c r="C706" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D706" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E706">
+        <v>12.8</v>
+      </c>
+      <c r="F706">
+        <v>20</v>
+      </c>
+      <c r="G706" t="s">
+        <v>3822</v>
+      </c>
+      <c r="H706" t="s">
+        <v>3866</v>
+      </c>
+      <c r="K706" t="s">
+        <v>3869</v>
+      </c>
+      <c r="L706" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="707" spans="1:20">
+      <c r="C707" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D707" t="s">
+        <v>3855</v>
+      </c>
+      <c r="E707">
+        <v>9.6</v>
+      </c>
+      <c r="F707">
+        <v>30</v>
+      </c>
+      <c r="G707" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H707" t="s">
+        <v>3866</v>
+      </c>
+      <c r="K707" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L707" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="708" spans="1:20">
+      <c r="C708" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D708" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E708">
+        <v>171</v>
+      </c>
+      <c r="F708">
+        <v>135</v>
+      </c>
+      <c r="G708" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H708" t="s">
+        <v>3868</v>
+      </c>
+      <c r="K708" t="s">
+        <v>3873</v>
+      </c>
+      <c r="L708" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="709" spans="1:20">
+      <c r="C709" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D709" t="s">
+        <v>3857</v>
+      </c>
+      <c r="E709">
+        <v>2.8</v>
+      </c>
+      <c r="F709">
+        <v>10</v>
+      </c>
+      <c r="G709" t="s">
+        <v>3801</v>
+      </c>
+      <c r="H709" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="710" spans="1:20">
+      <c r="A710" s="1">
+        <v>44656</v>
+      </c>
+      <c r="C710" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D710" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E710">
+        <v>4</v>
+      </c>
+      <c r="F710">
+        <v>15</v>
+      </c>
+      <c r="G710" t="s">
+        <v>3801</v>
+      </c>
+      <c r="H710" t="s">
+        <v>3836</v>
+      </c>
+      <c r="I710" t="s">
+        <v>3781</v>
+      </c>
+      <c r="J710" t="s">
+        <v>3861</v>
+      </c>
+      <c r="K710" t="s">
+        <v>3876</v>
+      </c>
+      <c r="L710" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="711" spans="1:20">
+      <c r="C711" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D711" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E711">
+        <v>236</v>
+      </c>
+      <c r="F711">
+        <v>180</v>
+      </c>
+      <c r="G711" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H711" t="s">
+        <v>3875</v>
+      </c>
+      <c r="K711" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L711" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="712" spans="1:20">
+      <c r="C712" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D712" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E712">
+        <v>6.4</v>
+      </c>
+      <c r="F712">
+        <v>20</v>
+      </c>
+      <c r="G712" t="s">
+        <v>3822</v>
+      </c>
+      <c r="H712" t="s">
+        <v>3866</v>
+      </c>
+      <c r="K712" t="s">
+        <v>3863</v>
+      </c>
+      <c r="L712" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="713" spans="1:20">
+      <c r="K713" t="s">
+        <v>3878</v>
+      </c>
+      <c r="L713" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="714" spans="1:20">
+      <c r="K714" t="s">
+        <v>3879</v>
+      </c>
+      <c r="L714" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="715" spans="1:20">
+      <c r="A715" s="1">
+        <v>44657</v>
+      </c>
+      <c r="C715" t="s">
+        <v>3859</v>
+      </c>
+      <c r="D715" t="s">
+        <v>3858</v>
+      </c>
+      <c r="E715">
+        <v>3</v>
+      </c>
+      <c r="F715">
+        <v>5</v>
+      </c>
+      <c r="G715" t="s">
+        <v>3822</v>
+      </c>
+      <c r="H715" t="s">
+        <v>3866</v>
+      </c>
+      <c r="I715" t="s">
+        <v>3885</v>
+      </c>
+      <c r="J715" s="13">
+        <v>13</v>
+      </c>
+      <c r="K715" t="s">
+        <v>3863</v>
+      </c>
+      <c r="L715" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="716" spans="1:20">
+      <c r="C716" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D716" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E716">
+        <v>243</v>
+      </c>
+      <c r="F716">
+        <v>240</v>
+      </c>
+      <c r="G716" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H716" s="14">
+        <v>16.37</v>
+      </c>
+      <c r="K716" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L716" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="717" spans="1:20">
+      <c r="C717" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D717" t="s">
+        <v>3882</v>
+      </c>
+      <c r="E717">
+        <v>3</v>
+      </c>
+      <c r="F717">
+        <v>10</v>
+      </c>
+      <c r="G717" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H717" t="s">
+        <v>3883</v>
+      </c>
+      <c r="K717" t="s">
+        <v>3873</v>
+      </c>
+      <c r="L717" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="718" spans="1:20">
+      <c r="A718" s="1">
+        <v>45389</v>
+      </c>
+      <c r="C718" t="s">
+        <v>3882</v>
+      </c>
+      <c r="D718" t="s">
+        <v>3881</v>
+      </c>
+      <c r="E718">
+        <v>3</v>
+      </c>
+      <c r="F718">
+        <v>10</v>
+      </c>
+      <c r="G718" t="s">
+        <v>23</v>
+      </c>
+      <c r="H718" t="s">
+        <v>3883</v>
+      </c>
+      <c r="I718" t="s">
+        <v>3894</v>
+      </c>
+      <c r="J718" t="s">
+        <v>3895</v>
+      </c>
+      <c r="K718" t="s">
+        <v>3896</v>
+      </c>
+      <c r="L718" t="s">
+        <v>3897</v>
+      </c>
+      <c r="N718" t="s">
+        <v>3898</v>
+      </c>
+      <c r="T718" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="719" spans="1:20">
+      <c r="C719" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D719" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E719">
+        <v>91.7</v>
+      </c>
+      <c r="F719">
+        <v>130</v>
+      </c>
+      <c r="G719" t="s">
+        <v>3850</v>
+      </c>
+      <c r="H719" t="s">
+        <v>3887</v>
+      </c>
+      <c r="K719" t="s">
+        <v>3900</v>
+      </c>
+      <c r="L719" t="s">
+        <v>3901</v>
+      </c>
+      <c r="M719" t="s">
+        <v>3904</v>
+      </c>
+      <c r="N719" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="720" spans="1:20">
+      <c r="C720" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D720" t="s">
+        <v>3886</v>
+      </c>
+      <c r="E720">
+        <v>5</v>
+      </c>
+      <c r="F720">
+        <v>20</v>
+      </c>
+      <c r="G720" t="s">
+        <v>23</v>
+      </c>
+      <c r="H720" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="721" spans="1:15">
+      <c r="C721" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D721" t="s">
+        <v>3888</v>
+      </c>
+      <c r="E721">
+        <v>124</v>
+      </c>
+      <c r="F721">
+        <v>130</v>
+      </c>
+      <c r="G721" t="s">
+        <v>23</v>
+      </c>
+      <c r="H721" t="s">
+        <v>3892</v>
+      </c>
+      <c r="K721" t="s">
+        <v>3902</v>
+      </c>
+      <c r="L721" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="722" spans="1:15">
+      <c r="C722" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D722" t="s">
+        <v>3890</v>
+      </c>
+      <c r="E722">
+        <v>5.2</v>
+      </c>
+      <c r="F722">
+        <v>15</v>
+      </c>
+      <c r="G722" t="s">
+        <v>23</v>
+      </c>
+      <c r="H722" t="s">
+        <v>3893</v>
+      </c>
+      <c r="K722" t="s">
+        <v>3906</v>
+      </c>
+      <c r="L722" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="723" spans="1:15">
+      <c r="C723" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D723" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E723">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F723">
+        <v>10</v>
+      </c>
+      <c r="G723" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H723" t="s">
+        <v>3893</v>
+      </c>
+      <c r="K723" t="s">
+        <v>985</v>
+      </c>
+      <c r="L723" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="724" spans="1:15">
+      <c r="K724" t="s">
+        <v>3909</v>
+      </c>
+      <c r="L724" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="725" spans="1:15">
+      <c r="K725" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L725" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="726" spans="1:15">
+      <c r="A726" s="1">
+        <v>45390</v>
+      </c>
+      <c r="C726" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D726" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E726">
+        <v>4</v>
+      </c>
+      <c r="F726">
+        <v>10</v>
+      </c>
+      <c r="G726" t="s">
+        <v>23</v>
+      </c>
+      <c r="H726" t="s">
+        <v>3917</v>
+      </c>
+      <c r="I726" t="s">
+        <v>3894</v>
+      </c>
+      <c r="J726" t="s">
+        <v>3916</v>
+      </c>
+      <c r="K726" t="s">
+        <v>3918</v>
+      </c>
+      <c r="L726" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="727" spans="1:15">
+      <c r="C727" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D727" t="s">
+        <v>3911</v>
+      </c>
+      <c r="E727">
+        <v>324</v>
+      </c>
+      <c r="F727">
+        <v>360</v>
+      </c>
+      <c r="G727" t="s">
+        <v>23</v>
+      </c>
+      <c r="H727" t="s">
+        <v>3912</v>
+      </c>
+      <c r="K727" t="s">
+        <v>2853</v>
+      </c>
+      <c r="L727" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="728" spans="1:15">
+      <c r="C728" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D728" t="s">
+        <v>3915</v>
+      </c>
+      <c r="E728">
+        <v>2</v>
+      </c>
+      <c r="F728">
+        <v>10</v>
+      </c>
+      <c r="G728" t="s">
+        <v>23</v>
+      </c>
+      <c r="J728" t="s">
+        <v>3921</v>
+      </c>
+      <c r="K728" t="s">
+        <v>3922</v>
+      </c>
+      <c r="L728" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="729" spans="1:15">
+      <c r="K729" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L729" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="730" spans="1:15">
+      <c r="A730" s="1">
+        <v>45391</v>
+      </c>
+      <c r="C730" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D730" t="s">
+        <v>3932</v>
+      </c>
+      <c r="E730">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F730">
+        <v>15</v>
+      </c>
+      <c r="G730" t="s">
+        <v>3933</v>
+      </c>
+      <c r="H730" t="s">
+        <v>3921</v>
+      </c>
+      <c r="I730" t="s">
+        <v>3929</v>
+      </c>
+      <c r="J730" s="14">
+        <v>15.73</v>
+      </c>
+      <c r="K730" t="s">
+        <v>3052</v>
+      </c>
+      <c r="L730" s="14" t="s">
+        <v>3930</v>
+      </c>
+      <c r="M730" t="s">
+        <v>949</v>
+      </c>
+      <c r="N730" s="14" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="731" spans="1:15">
+      <c r="C731" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D731" t="s">
+        <v>3925</v>
+      </c>
+      <c r="E731">
+        <v>3.2</v>
+      </c>
+      <c r="F731">
+        <v>10</v>
+      </c>
+      <c r="G731" t="s">
+        <v>3934</v>
+      </c>
+      <c r="H731" t="s">
+        <v>3921</v>
+      </c>
+      <c r="K731" t="s">
+        <v>3922</v>
+      </c>
+      <c r="L731" t="s">
+        <v>3937</v>
+      </c>
+      <c r="M731" t="s">
+        <v>3939</v>
+      </c>
+      <c r="N731" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="732" spans="1:15">
+      <c r="C732" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D732" t="s">
+        <v>3926</v>
+      </c>
+      <c r="E732">
+        <v>259</v>
+      </c>
+      <c r="F732">
+        <v>270</v>
+      </c>
+      <c r="G732" t="s">
+        <v>3927</v>
+      </c>
+      <c r="H732" t="s">
+        <v>3928</v>
+      </c>
+      <c r="K732" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L732" t="s">
+        <v>3941</v>
+      </c>
+      <c r="N732" t="s">
+        <v>3943</v>
+      </c>
+      <c r="O732" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="733" spans="1:15">
+      <c r="C733" t="s">
+        <v>3926</v>
+      </c>
+      <c r="D733" t="s">
+        <v>3935</v>
+      </c>
+      <c r="E733">
+        <v>8</v>
+      </c>
+      <c r="F733">
+        <v>30</v>
+      </c>
+      <c r="G733" t="s">
+        <v>23</v>
+      </c>
+      <c r="H733" t="s">
+        <v>3936</v>
+      </c>
+      <c r="K733" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L733" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="734" spans="1:15">
+      <c r="A734" s="1">
+        <v>45392</v>
+      </c>
+      <c r="C734" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D734" t="s">
+        <v>3926</v>
+      </c>
+      <c r="E734">
+        <v>8</v>
+      </c>
+      <c r="F734">
+        <v>30</v>
+      </c>
+      <c r="G734" t="s">
+        <v>23</v>
+      </c>
+      <c r="I734" t="s">
+        <v>19</v>
+      </c>
+      <c r="J734" t="s">
+        <v>3949</v>
+      </c>
+      <c r="K734" t="s">
+        <v>3870</v>
+      </c>
+      <c r="L734" t="s">
+        <v>3958</v>
+      </c>
+      <c r="M734" t="s">
+        <v>3961</v>
+      </c>
+      <c r="N734" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="735" spans="1:15">
+      <c r="C735" t="s">
+        <v>3926</v>
+      </c>
+      <c r="D735" t="s">
+        <v>3945</v>
+      </c>
+      <c r="E735">
+        <v>242</v>
+      </c>
+      <c r="F735">
+        <v>180</v>
+      </c>
+      <c r="G735" t="s">
+        <v>3927</v>
+      </c>
+      <c r="H735" t="s">
+        <v>3946</v>
+      </c>
+      <c r="K735" t="s">
+        <v>3959</v>
+      </c>
+      <c r="L735" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="736" spans="1:15">
+      <c r="C736" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D736" t="s">
+        <v>3947</v>
+      </c>
+      <c r="E736">
+        <v>18</v>
+      </c>
+      <c r="F736">
+        <v>30</v>
+      </c>
+      <c r="G736" t="s">
+        <v>3927</v>
+      </c>
+      <c r="H736" t="s">
+        <v>3952</v>
+      </c>
+      <c r="K736" t="s">
+        <v>3963</v>
+      </c>
+      <c r="L736" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12">
+      <c r="C737" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D737" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E737">
+        <v>18</v>
+      </c>
+      <c r="F737">
+        <v>30</v>
+      </c>
+      <c r="G737" t="s">
+        <v>3927</v>
+      </c>
+      <c r="H737" t="s">
+        <v>3953</v>
+      </c>
+      <c r="K737" t="s">
+        <v>3964</v>
+      </c>
+      <c r="L737" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12">
+      <c r="A738" s="41">
+        <v>45393</v>
+      </c>
+      <c r="C738" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D738" t="s">
+        <v>3955</v>
+      </c>
+      <c r="E738">
+        <v>153</v>
+      </c>
+      <c r="F738">
+        <v>155</v>
+      </c>
+      <c r="G738" t="s">
+        <v>23</v>
+      </c>
+      <c r="H738" t="s">
+        <v>3950</v>
+      </c>
+      <c r="I738" t="s">
+        <v>3951</v>
+      </c>
+      <c r="J738" t="s">
+        <v>3950</v>
+      </c>
+      <c r="K738" t="s">
+        <v>3966</v>
+      </c>
+      <c r="L738" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12">
+      <c r="C739" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D739" t="s">
+        <v>3956</v>
+      </c>
+      <c r="E739">
+        <v>3.6</v>
+      </c>
+      <c r="F739">
+        <v>15</v>
+      </c>
+      <c r="G739" t="s">
+        <v>23</v>
+      </c>
+      <c r="H739" t="s">
+        <v>3957</v>
+      </c>
+      <c r="K739" t="s">
+        <v>3967</v>
+      </c>
+      <c r="L739" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12">
+      <c r="K740" t="s">
+        <v>3966</v>
+      </c>
+      <c r="L740" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12">
+      <c r="K741" t="s">
+        <v>3966</v>
+      </c>
+      <c r="L741" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12">
+      <c r="K742" t="s">
+        <v>3966</v>
+      </c>
+      <c r="L742" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12">
+      <c r="K743" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L743" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12">
+      <c r="K744" t="s">
+        <v>3966</v>
+      </c>
+      <c r="L744" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12">
+      <c r="A745" s="1">
+        <v>45394</v>
+      </c>
+      <c r="C745" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D745" t="s">
+        <v>3955</v>
+      </c>
+      <c r="E745">
+        <v>3.6</v>
+      </c>
+      <c r="F745">
+        <v>15</v>
+      </c>
+      <c r="G745" t="s">
+        <v>23</v>
+      </c>
+      <c r="H745" t="s">
+        <v>3957</v>
+      </c>
+      <c r="I745" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12">
+      <c r="C746" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D746" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E746">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="601">
@@ -64148,17 +66160,18 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CD84AB-CF11-48A8-9845-52EF3CCB46BE}">
-  <dimension ref="A1:X248"/>
+  <dimension ref="A1:X258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F248" sqref="F248"/>
+    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -68177,6 +70190,197 @@
       </c>
       <c r="H248" t="s">
         <v>3784</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249" s="1">
+        <v>45384</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D249" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E249">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F249">
+        <v>45</v>
+      </c>
+      <c r="G249" t="s">
+        <v>3779</v>
+      </c>
+      <c r="I249" t="s">
+        <v>3824</v>
+      </c>
+      <c r="K249" t="s">
+        <v>3828</v>
+      </c>
+      <c r="L249" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="C250" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D250" t="s">
+        <v>3810</v>
+      </c>
+      <c r="E250">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F250">
+        <v>70</v>
+      </c>
+      <c r="K250" t="s">
+        <v>3829</v>
+      </c>
+      <c r="L250" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="C251" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D251" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E251">
+        <v>115</v>
+      </c>
+      <c r="F251">
+        <v>130</v>
+      </c>
+      <c r="K251" t="s">
+        <v>3830</v>
+      </c>
+      <c r="L251" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="C252" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D252" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+      <c r="H252" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="C253" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D253" t="s">
+        <v>3815</v>
+      </c>
+      <c r="E253">
+        <v>11</v>
+      </c>
+      <c r="F253">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="C254" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E254">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F254">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="C255" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E255">
+        <v>4.2</v>
+      </c>
+      <c r="F255">
+        <v>11</v>
+      </c>
+      <c r="G255" t="s">
+        <v>3822</v>
+      </c>
+      <c r="H255" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="C256" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E256">
+        <v>561</v>
+      </c>
+      <c r="F256">
+        <v>65</v>
+      </c>
+      <c r="G256" t="s">
+        <v>3824</v>
+      </c>
+      <c r="H256" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>45385</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E257">
+        <v>7049</v>
+      </c>
+      <c r="F257">
+        <v>625</v>
+      </c>
+      <c r="G257" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="C258" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E258">
+        <v>2730</v>
+      </c>
+      <c r="F258">
+        <v>255</v>
+      </c>
+      <c r="G258" t="s">
+        <v>3824</v>
       </c>
     </row>
   </sheetData>
@@ -68266,7 +70470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E8279-2BDC-44CE-B7F8-837FCFA75579}">
   <dimension ref="A1:X94"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="I41" sqref="I41:I46"/>
     </sheetView>
   </sheetViews>
@@ -71133,6 +73337,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>